--- a/testout_top_timing_tran_halffreq_post_termination_tsmc2ff_meas.xlsx
+++ b/testout_top_timing_tran_halffreq_post_termination_tsmc2ff_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="129">
   <si>
     <t>Process</t>
   </si>
@@ -247,121 +247,127 @@
     <t>typical</t>
   </si>
   <si>
+    <t>8.00000e00</t>
+  </si>
+  <si>
+    <t>6.00000e00</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>tsmc2ff (1)</t>
+  </si>
+  <si>
+    <t>mosulvt_ss</t>
+  </si>
+  <si>
+    <t>moselvt_ss</t>
+  </si>
+  <si>
+    <t>moshselvt_ss</t>
+  </si>
+  <si>
+    <t>moslvt_ss</t>
+  </si>
+  <si>
+    <t>nmoscap_s</t>
+  </si>
+  <si>
+    <t>bip_s</t>
+  </si>
+  <si>
+    <t>dio_s</t>
+  </si>
+  <si>
+    <t>res_h</t>
+  </si>
+  <si>
+    <t>cap_h</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>0.788</t>
+  </si>
+  <si>
+    <t>0.825</t>
+  </si>
+  <si>
+    <t>1.80000e01</t>
+  </si>
+  <si>
+    <t>1.60000e01</t>
+  </si>
+  <si>
+    <t>tsmc2ff (2)</t>
+  </si>
+  <si>
+    <t>-20</t>
+  </si>
+  <si>
+    <t>1.50000e01</t>
+  </si>
+  <si>
+    <t>tsmc2ff (3)</t>
+  </si>
+  <si>
+    <t>0.675</t>
+  </si>
+  <si>
+    <t>2.30000e01</t>
+  </si>
+  <si>
+    <t>2.00000e01</t>
+  </si>
+  <si>
+    <t>tsmc2ff (4)</t>
+  </si>
+  <si>
+    <t>1.90000e01</t>
+  </si>
+  <si>
+    <t>tsmc2ff (5)</t>
+  </si>
+  <si>
+    <t>mosulvt_ff</t>
+  </si>
+  <si>
+    <t>moselvt_ff</t>
+  </si>
+  <si>
+    <t>moshselvt_ff</t>
+  </si>
+  <si>
+    <t>moslvt_ff</t>
+  </si>
+  <si>
+    <t>nmoscap_f</t>
+  </si>
+  <si>
+    <t>bip_f</t>
+  </si>
+  <si>
+    <t>dio_f</t>
+  </si>
+  <si>
+    <t>res_l</t>
+  </si>
+  <si>
+    <t>cap_l</t>
+  </si>
+  <si>
+    <t>rcbest_ccbest_t</t>
+  </si>
+  <si>
     <t>3.00000e00</t>
   </si>
   <si>
-    <t>tsmc2ff (1)</t>
-  </si>
-  <si>
-    <t>mosulvt_ss</t>
-  </si>
-  <si>
-    <t>moselvt_ss</t>
-  </si>
-  <si>
-    <t>moshselvt_ss</t>
-  </si>
-  <si>
-    <t>moslvt_ss</t>
-  </si>
-  <si>
-    <t>nmoscap_s</t>
-  </si>
-  <si>
-    <t>bip_s</t>
-  </si>
-  <si>
-    <t>dio_s</t>
-  </si>
-  <si>
-    <t>res_h</t>
-  </si>
-  <si>
-    <t>cap_h</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>0.773</t>
-  </si>
-  <si>
-    <t>0.770</t>
-  </si>
-  <si>
-    <t>rcworst_ccworst_t</t>
-  </si>
-  <si>
-    <t>1.50000e01</t>
-  </si>
-  <si>
-    <t>1.10000e01</t>
-  </si>
-  <si>
-    <t>tsmc2ff (2)</t>
-  </si>
-  <si>
-    <t>-40</t>
-  </si>
-  <si>
-    <t>7.00000e00</t>
-  </si>
-  <si>
-    <t>5.00000e00</t>
-  </si>
-  <si>
-    <t>tsmc2ff (3)</t>
-  </si>
-  <si>
-    <t>0.690</t>
-  </si>
-  <si>
-    <t>1.60000e01</t>
-  </si>
-  <si>
-    <t>tsmc2ff (4)</t>
-  </si>
-  <si>
-    <t>tsmc2ff (5)</t>
-  </si>
-  <si>
-    <t>mosulvt_ff</t>
-  </si>
-  <si>
-    <t>moselvt_ff</t>
-  </si>
-  <si>
-    <t>moshselvt_ff</t>
-  </si>
-  <si>
-    <t>moslvt_ff</t>
-  </si>
-  <si>
-    <t>nmoscap_f</t>
-  </si>
-  <si>
-    <t>bip_f</t>
-  </si>
-  <si>
-    <t>dio_f</t>
-  </si>
-  <si>
-    <t>res_l</t>
-  </si>
-  <si>
-    <t>cap_l</t>
-  </si>
-  <si>
-    <t>rcbest_ccbest_t</t>
+    <t>tsmc2ff (6)</t>
   </si>
   <si>
     <t>1.00000e00</t>
-  </si>
-  <si>
-    <t>tsmc2ff (6)</t>
-  </si>
-  <si>
-    <t>0.00000e00</t>
   </si>
   <si>
     <t>tsmc2ff (7)</t>
@@ -419,14 +425,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF "/>
+      <color rgb="FF000000 "/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000 "/>
+      <color rgb="FFFFFFFF "/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -441,19 +447,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0094D1"/>
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE8B8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9133"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE8B8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,530 +1035,530 @@
         <v>77</v>
       </c>
       <c r="S2" t="s">
-        <v>77</v>
-      </c>
-      <c r="T2" s="2">
-        <v>-953.4599999999999</v>
-      </c>
-      <c r="U2" s="2">
-        <v>-1049.69</v>
-      </c>
-      <c r="V2" s="2">
-        <v>-1001.57</v>
-      </c>
-      <c r="W2" s="2">
-        <v>-948.903</v>
-      </c>
-      <c r="X2" s="2">
-        <v>-1045.02</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>-996.961</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>-848.306</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>-946.0540000000001</v>
-      </c>
-      <c r="AB2" s="2">
-        <v>-897.1800000000001</v>
+        <v>78</v>
+      </c>
+      <c r="T2">
+        <v>129.118</v>
+      </c>
+      <c r="U2">
+        <v>130.019</v>
+      </c>
+      <c r="V2">
+        <v>129.568</v>
+      </c>
+      <c r="W2">
+        <v>131.338</v>
+      </c>
+      <c r="X2">
+        <v>132.154</v>
+      </c>
+      <c r="Y2">
+        <v>131.746</v>
+      </c>
+      <c r="Z2">
+        <v>232.43</v>
+      </c>
+      <c r="AA2">
+        <v>233.389</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="AC2" s="3">
-        <v>52.1108</v>
-      </c>
-      <c r="AD2" s="4">
-        <v>49.6124</v>
+        <v>37.9265</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>36.2947</v>
       </c>
       <c r="AE2" s="3">
-        <v>54.259</v>
+        <v>39.4489</v>
       </c>
       <c r="AF2" s="3">
-        <v>51.3975</v>
-      </c>
-      <c r="AG2" s="4">
-        <v>42.7544</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>-158.707</v>
-      </c>
-      <c r="AI2">
-        <v>5.22335</v>
-      </c>
-      <c r="AJ2">
-        <v>5.48639</v>
+        <v>37.5958</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>36.1495</v>
+      </c>
+      <c r="AH2" s="3">
+        <v>34.5729</v>
+      </c>
+      <c r="AI2" s="4">
+        <v>10.2202</v>
+      </c>
+      <c r="AJ2" s="4">
+        <v>10.6797</v>
       </c>
       <c r="AK2">
-        <v>4.84619</v>
-      </c>
-      <c r="AL2">
-        <v>5.11599</v>
+        <v>9.77965</v>
+      </c>
+      <c r="AL2" s="4">
+        <v>10.2617</v>
       </c>
       <c r="AM2">
-        <v>4.16607</v>
-      </c>
-      <c r="AN2" s="2">
-        <v>-1.12231</v>
+        <v>7.34947</v>
+      </c>
+      <c r="AN2">
+        <v>7.68461</v>
       </c>
       <c r="AO2">
-        <v>51.8841</v>
+        <v>50.4706</v>
       </c>
       <c r="AP2">
-        <v>51.9402</v>
+        <v>50.4299</v>
       </c>
       <c r="AQ2">
-        <v>51.1484</v>
+        <v>50.4873</v>
       </c>
       <c r="AR2">
-        <v>610.606</v>
+        <v>696.8339999999999</v>
       </c>
       <c r="AS2">
-        <v>156.952</v>
+        <v>50.806</v>
       </c>
       <c r="AT2">
-        <v>247.683</v>
+        <v>180.012</v>
       </c>
       <c r="AU2">
-        <v>519.875</v>
+        <v>567.628</v>
       </c>
       <c r="AV2">
-        <v>383.779</v>
+        <v>373.82</v>
       </c>
       <c r="AW2">
-        <v>453.655</v>
+        <v>646.028</v>
       </c>
       <c r="AX2">
-        <v>293.299</v>
+        <v>350.463</v>
       </c>
       <c r="AY2">
-        <v>602.736</v>
+        <v>695.414</v>
       </c>
       <c r="AZ2">
-        <v>164.487</v>
+        <v>52.4198</v>
       </c>
       <c r="BA2">
-        <v>252.137</v>
+        <v>181.019</v>
       </c>
       <c r="BB2">
-        <v>515.086</v>
+        <v>566.8149999999999</v>
       </c>
       <c r="BC2">
-        <v>383.611</v>
+        <v>373.917</v>
       </c>
       <c r="BD2">
-        <v>438.249</v>
+        <v>642.9939999999999</v>
       </c>
       <c r="BE2">
-        <v>294.513</v>
+        <v>350.98</v>
       </c>
       <c r="BF2">
-        <v>532.741</v>
+        <v>593.504</v>
       </c>
       <c r="BG2">
-        <v>235.877</v>
+        <v>150.705</v>
       </c>
       <c r="BH2">
-        <v>295.25</v>
+        <v>239.265</v>
       </c>
       <c r="BI2">
-        <v>473.368</v>
+        <v>504.945</v>
       </c>
       <c r="BJ2">
-        <v>384.309</v>
+        <v>372.105</v>
       </c>
       <c r="BK2">
-        <v>296.864</v>
+        <v>442.799</v>
       </c>
       <c r="BL2">
-        <v>414.429</v>
+        <v>474.131</v>
       </c>
     </row>
     <row r="3" spans="1:64">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L3" t="s">
+        <v>90</v>
+      </c>
+      <c r="M3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R3" t="s">
+        <v>93</v>
+      </c>
+      <c r="S3" t="s">
+        <v>94</v>
+      </c>
+      <c r="T3">
+        <v>144.897</v>
+      </c>
+      <c r="U3">
+        <v>145.838</v>
+      </c>
+      <c r="V3">
+        <v>145.367</v>
+      </c>
+      <c r="W3">
+        <v>147.281</v>
+      </c>
+      <c r="X3">
+        <v>148.211</v>
+      </c>
+      <c r="Y3">
+        <v>147.746</v>
+      </c>
+      <c r="Z3">
+        <v>247.834</v>
+      </c>
+      <c r="AA3">
+        <v>248.734</v>
+      </c>
+      <c r="AB3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J3" t="s">
-        <v>87</v>
-      </c>
-      <c r="K3" t="s">
-        <v>88</v>
-      </c>
-      <c r="L3" t="s">
-        <v>88</v>
-      </c>
-      <c r="M3" t="s">
-        <v>89</v>
-      </c>
-      <c r="N3" t="s">
-        <v>89</v>
-      </c>
-      <c r="O3" t="s">
-        <v>89</v>
-      </c>
-      <c r="P3" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>91</v>
-      </c>
-      <c r="R3" t="s">
-        <v>92</v>
-      </c>
-      <c r="S3" t="s">
-        <v>93</v>
-      </c>
-      <c r="T3" s="2">
-        <v>-948.8240000000001</v>
-      </c>
-      <c r="U3" s="2">
-        <v>-1045.06</v>
-      </c>
-      <c r="V3" s="2">
-        <v>-996.941</v>
-      </c>
-      <c r="W3" s="2">
-        <v>-944.4190000000001</v>
-      </c>
-      <c r="X3" s="2">
-        <v>-1040.47</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>-992.4450000000001</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>-843.5210000000001</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>-941.0569999999999</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>-892.289</v>
-      </c>
       <c r="AC3" s="3">
-        <v>50.5673</v>
-      </c>
-      <c r="AD3" s="4">
-        <v>47.996</v>
+        <v>40.8551</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>39.2442</v>
       </c>
       <c r="AE3" s="3">
-        <v>52.4998</v>
-      </c>
-      <c r="AF3" s="4">
-        <v>49.573</v>
-      </c>
-      <c r="AG3" s="4">
-        <v>42.5883</v>
-      </c>
-      <c r="AH3" s="2">
-        <v>-158.878</v>
+        <v>42.4156</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>40.54000000000001</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>37.9968</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>36.6774</v>
       </c>
       <c r="AI3">
-        <v>5.57554</v>
+        <v>9.30345</v>
       </c>
       <c r="AJ3">
-        <v>5.87423</v>
+        <v>9.68535</v>
       </c>
       <c r="AK3">
-        <v>5.19658</v>
+        <v>8.886369999999999</v>
       </c>
       <c r="AL3">
-        <v>5.50338</v>
+        <v>9.297499999999999</v>
       </c>
       <c r="AM3">
-        <v>4.42086</v>
-      </c>
-      <c r="AN3" s="2">
-        <v>-1.18504</v>
+        <v>6.87922</v>
+      </c>
+      <c r="AN3">
+        <v>7.12667</v>
       </c>
       <c r="AO3">
-        <v>51.833</v>
+        <v>50.4953</v>
       </c>
       <c r="AP3">
-        <v>51.9006</v>
+        <v>50.4894</v>
       </c>
       <c r="AQ3">
-        <v>51.3017</v>
+        <v>50.4723</v>
       </c>
       <c r="AR3">
-        <v>630.36</v>
+        <v>708.865</v>
       </c>
       <c r="AS3">
-        <v>160.46</v>
+        <v>75.3751</v>
       </c>
       <c r="AT3">
-        <v>254.44</v>
+        <v>202.073</v>
       </c>
       <c r="AU3">
-        <v>536.38</v>
+        <v>582.167</v>
       </c>
       <c r="AV3">
-        <v>395.41</v>
+        <v>392.12</v>
       </c>
       <c r="AW3">
-        <v>469.9</v>
+        <v>633.49</v>
       </c>
       <c r="AX3">
-        <v>308.385</v>
+        <v>364.876</v>
       </c>
       <c r="AY3">
-        <v>622.3629999999999</v>
+        <v>706.2889999999999</v>
       </c>
       <c r="AZ3">
-        <v>167.664</v>
+        <v>78.0881</v>
       </c>
       <c r="BA3">
-        <v>258.604</v>
+        <v>203.728</v>
       </c>
       <c r="BB3">
-        <v>531.423</v>
+        <v>580.649</v>
       </c>
       <c r="BC3">
-        <v>395.013</v>
+        <v>392.189</v>
       </c>
       <c r="BD3">
-        <v>454.699</v>
+        <v>628.201</v>
       </c>
       <c r="BE3">
-        <v>309.712</v>
+        <v>365.4570000000001</v>
       </c>
       <c r="BF3">
-        <v>552.231</v>
+        <v>608.4770000000001</v>
       </c>
       <c r="BG3">
-        <v>238.437</v>
+        <v>172.83</v>
       </c>
       <c r="BH3">
-        <v>301.196</v>
+        <v>259.959</v>
       </c>
       <c r="BI3">
-        <v>489.472</v>
+        <v>521.347</v>
       </c>
       <c r="BJ3">
-        <v>395.334</v>
+        <v>390.653</v>
       </c>
       <c r="BK3">
-        <v>313.795</v>
+        <v>435.647</v>
       </c>
       <c r="BL3">
-        <v>429.779</v>
+        <v>487.372</v>
       </c>
     </row>
     <row r="4" spans="1:64">
       <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L4" t="s">
+        <v>96</v>
+      </c>
+      <c r="M4" t="s">
+        <v>91</v>
+      </c>
+      <c r="N4" t="s">
+        <v>91</v>
+      </c>
+      <c r="O4" t="s">
+        <v>91</v>
+      </c>
+      <c r="P4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R4" t="s">
         <v>94</v>
-      </c>
-      <c r="B4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J4" t="s">
-        <v>87</v>
-      </c>
-      <c r="K4" t="s">
-        <v>95</v>
-      </c>
-      <c r="L4" t="s">
-        <v>95</v>
-      </c>
-      <c r="M4" t="s">
-        <v>89</v>
-      </c>
-      <c r="N4" t="s">
-        <v>89</v>
-      </c>
-      <c r="O4" t="s">
-        <v>89</v>
-      </c>
-      <c r="P4" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>91</v>
-      </c>
-      <c r="R4" t="s">
-        <v>96</v>
       </c>
       <c r="S4" t="s">
         <v>97</v>
       </c>
-      <c r="T4" s="2">
-        <v>-949.111</v>
-      </c>
-      <c r="U4" s="2">
-        <v>-1043.81</v>
-      </c>
-      <c r="V4" s="2">
-        <v>-996.4619999999999</v>
-      </c>
-      <c r="W4" s="2">
-        <v>-944.673</v>
-      </c>
-      <c r="X4" s="2">
-        <v>-1039.2</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>-991.934</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>-843.481</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>-940.771</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>-892.126</v>
+      <c r="T4">
+        <v>146.142</v>
+      </c>
+      <c r="U4">
+        <v>147.299</v>
+      </c>
+      <c r="V4">
+        <v>146.72</v>
+      </c>
+      <c r="W4">
+        <v>148.486</v>
+      </c>
+      <c r="X4">
+        <v>149.578</v>
+      </c>
+      <c r="Y4">
+        <v>149.032</v>
+      </c>
+      <c r="Z4">
+        <v>249.064</v>
+      </c>
+      <c r="AA4">
+        <v>250.308</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="AC4" s="3">
-        <v>51.5259</v>
-      </c>
-      <c r="AD4" s="4">
-        <v>49.0859</v>
+        <v>39.9378</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>37.4801</v>
       </c>
       <c r="AE4" s="3">
-        <v>53.6972</v>
+        <v>41.54349999999999</v>
       </c>
       <c r="AF4" s="3">
-        <v>51.0045</v>
-      </c>
-      <c r="AG4" s="2">
-        <v>-157.262</v>
-      </c>
-      <c r="AH4" s="4">
-        <v>40.925</v>
+        <v>38.7077</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>37.53340000000001</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>35.5571</v>
       </c>
       <c r="AI4">
-        <v>5.61574</v>
-      </c>
-      <c r="AJ4">
-        <v>5.89489</v>
+        <v>9.965909999999999</v>
+      </c>
+      <c r="AJ4" s="4">
+        <v>10.6194</v>
       </c>
       <c r="AK4">
-        <v>5.21634</v>
-      </c>
-      <c r="AL4">
-        <v>5.49173</v>
-      </c>
-      <c r="AM4" s="2">
-        <v>-1.20619</v>
+        <v>9.51248</v>
+      </c>
+      <c r="AL4" s="4">
+        <v>10.2094</v>
+      </c>
+      <c r="AM4">
+        <v>7.30374</v>
       </c>
       <c r="AN4">
-        <v>4.63501</v>
+        <v>7.70969</v>
       </c>
       <c r="AO4">
-        <v>52.6815</v>
+        <v>50.6025</v>
       </c>
       <c r="AP4">
-        <v>52.7689</v>
+        <v>50.5699</v>
       </c>
       <c r="AQ4">
-        <v>51.3907</v>
+        <v>50.6419</v>
       </c>
       <c r="AR4">
-        <v>635.6319999999999</v>
+        <v>724.188</v>
       </c>
       <c r="AS4">
-        <v>153.372</v>
+        <v>60.8273</v>
       </c>
       <c r="AT4">
-        <v>249.824</v>
+        <v>193.499</v>
       </c>
       <c r="AU4">
-        <v>539.1799999999999</v>
+        <v>591.5160000000001</v>
       </c>
       <c r="AV4">
-        <v>394.502</v>
+        <v>392.508</v>
       </c>
       <c r="AW4">
-        <v>482.26</v>
+        <v>663.361</v>
       </c>
       <c r="AX4">
-        <v>410.044</v>
+        <v>366.531</v>
       </c>
       <c r="AY4">
-        <v>627.703</v>
+        <v>721.952</v>
       </c>
       <c r="AZ4">
-        <v>160.865</v>
+        <v>63.3156</v>
       </c>
       <c r="BA4">
-        <v>254.232</v>
+        <v>195.043</v>
       </c>
       <c r="BB4">
-        <v>534.335</v>
+        <v>590.225</v>
       </c>
       <c r="BC4">
-        <v>394.284</v>
+        <v>392.634</v>
       </c>
       <c r="BD4">
-        <v>466.838</v>
+        <v>658.636</v>
       </c>
       <c r="BE4">
-        <v>411.475</v>
+        <v>367.06</v>
       </c>
       <c r="BF4">
-        <v>555.845</v>
+        <v>619.206</v>
       </c>
       <c r="BG4">
-        <v>239.698</v>
+        <v>162.316</v>
       </c>
       <c r="BH4">
-        <v>302.927</v>
+        <v>253.694</v>
       </c>
       <c r="BI4">
-        <v>492.615</v>
+        <v>527.828</v>
       </c>
       <c r="BJ4">
-        <v>397.771</v>
+        <v>390.761</v>
       </c>
       <c r="BK4">
-        <v>316.147</v>
+        <v>456.89</v>
       </c>
       <c r="BL4">
-        <v>530.655</v>
+        <v>489.574</v>
       </c>
     </row>
     <row r="5" spans="1:64">
@@ -1560,37 +1566,37 @@
         <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M5" t="s">
         <v>99</v>
@@ -1605,186 +1611,186 @@
         <v>99</v>
       </c>
       <c r="Q5" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="R5" t="s">
         <v>100</v>
       </c>
       <c r="S5" t="s">
-        <v>100</v>
-      </c>
-      <c r="T5" s="2">
-        <v>-945.566</v>
-      </c>
-      <c r="U5" s="2">
-        <v>-1040.54</v>
-      </c>
-      <c r="V5" s="2">
-        <v>-993.053</v>
-      </c>
-      <c r="W5" s="2">
-        <v>-941.0890000000001</v>
-      </c>
-      <c r="X5" s="2">
-        <v>-1035.91</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>-988.501</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>-839.937</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>-937.431</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>-888.6840000000001</v>
+        <v>101</v>
+      </c>
+      <c r="T5">
+        <v>178.355</v>
+      </c>
+      <c r="U5">
+        <v>179.99</v>
+      </c>
+      <c r="V5">
+        <v>179.172</v>
+      </c>
+      <c r="W5">
+        <v>180.714</v>
+      </c>
+      <c r="X5">
+        <v>182.379</v>
+      </c>
+      <c r="Y5">
+        <v>181.546</v>
+      </c>
+      <c r="Z5">
+        <v>280.837</v>
+      </c>
+      <c r="AA5">
+        <v>282.236</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="AC5" s="3">
-        <v>52.3361</v>
-      </c>
-      <c r="AD5" s="4">
-        <v>49.8923</v>
+        <v>43.9479</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>41.897</v>
       </c>
       <c r="AE5" s="3">
-        <v>54.6313</v>
+        <v>45.705</v>
       </c>
       <c r="AF5" s="3">
-        <v>51.9738</v>
-      </c>
-      <c r="AG5" s="4">
-        <v>43.1217</v>
-      </c>
-      <c r="AH5" s="4">
-        <v>41.2481</v>
+        <v>43.2639</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>39.8109</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>38.3789</v>
       </c>
       <c r="AI5">
-        <v>4.82022</v>
+        <v>6.93013</v>
       </c>
       <c r="AJ5">
-        <v>5.05632</v>
+        <v>7.26935</v>
       </c>
       <c r="AK5">
-        <v>4.47074</v>
+        <v>6.58169</v>
       </c>
       <c r="AL5">
-        <v>4.69933</v>
-      </c>
-      <c r="AM5" s="2">
-        <v>3.82434</v>
-      </c>
-      <c r="AN5" s="2">
-        <v>3.99805</v>
+        <v>6.95304</v>
+      </c>
+      <c r="AM5">
+        <v>5.2798</v>
+      </c>
+      <c r="AN5">
+        <v>5.47679</v>
       </c>
       <c r="AO5">
-        <v>52.5485</v>
+        <v>50.8222</v>
       </c>
       <c r="AP5">
-        <v>52.6227</v>
+        <v>50.8359</v>
       </c>
       <c r="AQ5">
-        <v>51.3072</v>
+        <v>50.7141</v>
       </c>
       <c r="AR5">
-        <v>561.16</v>
+        <v>590.121</v>
       </c>
       <c r="AS5">
-        <v>140.708</v>
+        <v>82.514</v>
       </c>
       <c r="AT5">
-        <v>224.799</v>
+        <v>184.035</v>
       </c>
       <c r="AU5">
-        <v>477.07</v>
+        <v>488.6</v>
       </c>
       <c r="AV5">
-        <v>350.934</v>
+        <v>336.317</v>
       </c>
       <c r="AW5">
-        <v>420.452</v>
+        <v>507.607</v>
       </c>
       <c r="AX5">
-        <v>425.144</v>
+        <v>396.376</v>
       </c>
       <c r="AY5">
-        <v>554.3050000000001</v>
+        <v>587.048</v>
       </c>
       <c r="AZ5">
-        <v>147.236</v>
+        <v>85.6878</v>
       </c>
       <c r="BA5">
-        <v>228.649</v>
+        <v>185.96</v>
       </c>
       <c r="BB5">
-        <v>472.891</v>
+        <v>486.776</v>
       </c>
       <c r="BC5">
-        <v>350.77</v>
+        <v>336.368</v>
       </c>
       <c r="BD5">
-        <v>407.07</v>
+        <v>501.36</v>
       </c>
       <c r="BE5">
-        <v>426.564</v>
+        <v>396.837</v>
       </c>
       <c r="BF5">
-        <v>490.99</v>
+        <v>510.706</v>
       </c>
       <c r="BG5">
-        <v>216.137</v>
+        <v>160.384</v>
       </c>
       <c r="BH5">
-        <v>271.108</v>
+        <v>230.449</v>
       </c>
       <c r="BI5">
-        <v>436.02</v>
+        <v>440.642</v>
       </c>
       <c r="BJ5">
-        <v>353.564</v>
+        <v>335.545</v>
       </c>
       <c r="BK5">
-        <v>274.853</v>
+        <v>350.322</v>
       </c>
       <c r="BL5">
-        <v>545.7329999999999</v>
+        <v>517.581</v>
       </c>
     </row>
     <row r="6" spans="1:64">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M6" t="s">
         <v>99</v>
@@ -1799,574 +1805,574 @@
         <v>99</v>
       </c>
       <c r="Q6" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="R6" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="S6" t="s">
-        <v>93</v>
-      </c>
-      <c r="T6" s="2">
-        <v>-942.867</v>
-      </c>
-      <c r="U6" s="2">
-        <v>-1036.75</v>
-      </c>
-      <c r="V6" s="2">
-        <v>-989.8060000000002</v>
-      </c>
-      <c r="W6" s="2">
-        <v>-938.546</v>
-      </c>
-      <c r="X6" s="2">
-        <v>-1032.22</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>-985.384</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>-837.7850000000001</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>-933.431</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>-885.6080000000001</v>
+        <v>103</v>
+      </c>
+      <c r="T6">
+        <v>190.082</v>
+      </c>
+      <c r="U6">
+        <v>192.192</v>
+      </c>
+      <c r="V6">
+        <v>191.137</v>
+      </c>
+      <c r="W6">
+        <v>192.419</v>
+      </c>
+      <c r="X6">
+        <v>194.561</v>
+      </c>
+      <c r="Y6">
+        <v>193.49</v>
+      </c>
+      <c r="Z6">
+        <v>292.388</v>
+      </c>
+      <c r="AA6">
+        <v>294.391</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="AC6" s="3">
-        <v>52.1894</v>
-      </c>
-      <c r="AD6" s="4">
-        <v>48.0686</v>
+        <v>44.4136</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>40.6429</v>
       </c>
       <c r="AE6" s="3">
-        <v>54.4043</v>
-      </c>
-      <c r="AF6" s="4">
-        <v>49.8875</v>
-      </c>
-      <c r="AG6" s="4">
-        <v>44.0573</v>
-      </c>
-      <c r="AH6" s="4">
-        <v>41.7599</v>
+        <v>46.2995</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>41.8423</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>40.1289</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>37.7199</v>
       </c>
       <c r="AI6">
-        <v>4.85847</v>
+        <v>7.13122</v>
       </c>
       <c r="AJ6">
-        <v>5.27498</v>
+        <v>7.79283</v>
       </c>
       <c r="AK6">
-        <v>4.51434</v>
+        <v>6.75623</v>
       </c>
       <c r="AL6">
-        <v>4.92308</v>
-      </c>
-      <c r="AM6" s="2">
-        <v>3.87003</v>
+        <v>7.47593</v>
+      </c>
+      <c r="AM6">
+        <v>5.46021</v>
       </c>
       <c r="AN6">
-        <v>4.08294</v>
+        <v>5.80892</v>
       </c>
       <c r="AO6">
-        <v>53.0978</v>
+        <v>51.0165</v>
       </c>
       <c r="AP6">
-        <v>53.2021</v>
+        <v>51.0364</v>
       </c>
       <c r="AQ6">
-        <v>52.2115</v>
+        <v>50.9501</v>
       </c>
       <c r="AR6">
-        <v>564.5909999999999</v>
+        <v>600.394</v>
       </c>
       <c r="AS6">
-        <v>141.989</v>
+        <v>72.52210000000001</v>
       </c>
       <c r="AT6">
-        <v>226.509</v>
+        <v>178.096</v>
       </c>
       <c r="AU6">
-        <v>480.07</v>
+        <v>494.819</v>
       </c>
       <c r="AV6">
-        <v>353.29</v>
+        <v>336.458</v>
       </c>
       <c r="AW6">
-        <v>422.601</v>
+        <v>527.872</v>
       </c>
       <c r="AX6">
-        <v>432.985</v>
+        <v>408.098</v>
       </c>
       <c r="AY6">
-        <v>557.691</v>
+        <v>597.2239999999999</v>
       </c>
       <c r="AZ6">
-        <v>148.357</v>
+        <v>75.8738</v>
       </c>
       <c r="BA6">
-        <v>230.224</v>
+        <v>180.144</v>
       </c>
       <c r="BB6">
-        <v>475.824</v>
+        <v>492.954</v>
       </c>
       <c r="BC6">
-        <v>353.024</v>
+        <v>336.549</v>
       </c>
       <c r="BD6">
-        <v>409.333</v>
+        <v>521.35</v>
       </c>
       <c r="BE6">
-        <v>434.345</v>
+        <v>408.522</v>
       </c>
       <c r="BF6">
-        <v>496.426</v>
+        <v>518.1849999999999</v>
       </c>
       <c r="BG6">
-        <v>212.254</v>
+        <v>152.999</v>
       </c>
       <c r="BH6">
-        <v>269.089</v>
+        <v>226.036</v>
       </c>
       <c r="BI6">
-        <v>439.592</v>
+        <v>445.148</v>
       </c>
       <c r="BJ6">
-        <v>354.34</v>
+        <v>335.592</v>
       </c>
       <c r="BK6">
-        <v>284.172</v>
+        <v>365.187</v>
       </c>
       <c r="BL6">
-        <v>554.16</v>
+        <v>529.399</v>
       </c>
     </row>
     <row r="7" spans="1:64">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="R7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="S7" t="s">
-        <v>113</v>
-      </c>
-      <c r="T7" s="2">
-        <v>-957.1510000000001</v>
-      </c>
-      <c r="U7" s="2">
-        <v>-1053.53</v>
-      </c>
-      <c r="V7" s="2">
-        <v>-1005.34</v>
-      </c>
-      <c r="W7" s="2">
-        <v>-952.535</v>
-      </c>
-      <c r="X7" s="2">
-        <v>-1048.79</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>-1000.66</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>-851.9970000000001</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>-949.9340000000001</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>-900.966</v>
+        <v>115</v>
+      </c>
+      <c r="T7">
+        <v>105.792</v>
+      </c>
+      <c r="U7">
+        <v>106.42</v>
+      </c>
+      <c r="V7">
+        <v>106.106</v>
+      </c>
+      <c r="W7">
+        <v>107.666</v>
+      </c>
+      <c r="X7">
+        <v>108.259</v>
+      </c>
+      <c r="Y7">
+        <v>107.963</v>
+      </c>
+      <c r="Z7">
+        <v>209.576</v>
+      </c>
+      <c r="AA7">
+        <v>210.094</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="AC7" s="3">
-        <v>51.6644</v>
+        <v>34.9444</v>
       </c>
       <c r="AD7" s="3">
-        <v>50.5715</v>
+        <v>34.2736</v>
       </c>
       <c r="AE7" s="3">
-        <v>53.8724</v>
+        <v>36.4893</v>
       </c>
       <c r="AF7" s="3">
-        <v>52.58560000000001</v>
-      </c>
-      <c r="AG7" s="4">
-        <v>42.3618</v>
-      </c>
-      <c r="AH7" s="2">
-        <v>-158.502</v>
-      </c>
-      <c r="AI7">
-        <v>5.32441</v>
-      </c>
-      <c r="AJ7">
-        <v>5.43948</v>
-      </c>
-      <c r="AK7">
-        <v>4.93737</v>
-      </c>
-      <c r="AL7">
-        <v>5.05819</v>
+        <v>35.767</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>34.0469</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>32.9786</v>
+      </c>
+      <c r="AI7" s="4">
+        <v>12.0527</v>
+      </c>
+      <c r="AJ7" s="4">
+        <v>12.2886</v>
+      </c>
+      <c r="AK7" s="4">
+        <v>11.5316</v>
+      </c>
+      <c r="AL7" s="4">
+        <v>11.7645</v>
       </c>
       <c r="AM7">
-        <v>4.22082</v>
-      </c>
-      <c r="AN7" s="2">
-        <v>-1.12807</v>
+        <v>8.466799999999999</v>
+      </c>
+      <c r="AN7">
+        <v>8.741059999999999</v>
       </c>
       <c r="AO7">
-        <v>51.8253</v>
+        <v>50.3257</v>
       </c>
       <c r="AP7">
-        <v>51.8805</v>
+        <v>50.3099</v>
       </c>
       <c r="AQ7">
-        <v>51.0416</v>
+        <v>50.2565</v>
       </c>
       <c r="AR7">
-        <v>626.88</v>
+        <v>743.931</v>
       </c>
       <c r="AS7">
-        <v>168.408</v>
+        <v>41.9736</v>
       </c>
       <c r="AT7">
-        <v>260.103</v>
+        <v>182.365</v>
       </c>
       <c r="AU7">
-        <v>535.1850000000001</v>
+        <v>603.539</v>
       </c>
       <c r="AV7">
-        <v>397.644</v>
+        <v>392.952</v>
       </c>
       <c r="AW7">
-        <v>458.471</v>
+        <v>701.957</v>
       </c>
       <c r="AX7">
-        <v>278.744</v>
+        <v>328.562</v>
       </c>
       <c r="AY7">
-        <v>618.9639999999999</v>
+        <v>743.6239999999999</v>
       </c>
       <c r="AZ7">
-        <v>175.651</v>
+        <v>42.3227</v>
       </c>
       <c r="BA7">
-        <v>264.314</v>
+        <v>182.583</v>
       </c>
       <c r="BB7">
-        <v>530.302</v>
+        <v>603.364</v>
       </c>
       <c r="BC7">
-        <v>397.308</v>
+        <v>392.973</v>
       </c>
       <c r="BD7">
-        <v>443.313</v>
+        <v>701.3009999999999</v>
       </c>
       <c r="BE7">
-        <v>280.016</v>
+        <v>329.052</v>
       </c>
       <c r="BF7">
-        <v>547.1319999999999</v>
+        <v>631.749</v>
       </c>
       <c r="BG7">
-        <v>249.129</v>
+        <v>151.302</v>
       </c>
       <c r="BH7">
-        <v>308.73</v>
+        <v>247.392</v>
       </c>
       <c r="BI7">
-        <v>487.532</v>
+        <v>535.66</v>
       </c>
       <c r="BJ7">
-        <v>398.131</v>
+        <v>391.526</v>
       </c>
       <c r="BK7">
-        <v>298.003</v>
+        <v>480.447</v>
       </c>
       <c r="BL7">
-        <v>399.833</v>
+        <v>453.1130000000001</v>
       </c>
     </row>
     <row r="8" spans="1:64">
       <c r="A8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J8" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="s">
+        <v>91</v>
+      </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
+        <v>91</v>
+      </c>
+      <c r="P8" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q8" t="s">
         <v>114</v>
       </c>
-      <c r="B8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G8" t="s">
-        <v>108</v>
-      </c>
-      <c r="H8" t="s">
-        <v>109</v>
-      </c>
-      <c r="I8" t="s">
-        <v>110</v>
-      </c>
-      <c r="J8" t="s">
-        <v>111</v>
-      </c>
-      <c r="K8" t="s">
-        <v>95</v>
-      </c>
-      <c r="L8" t="s">
-        <v>95</v>
-      </c>
-      <c r="M8" t="s">
-        <v>89</v>
-      </c>
-      <c r="N8" t="s">
-        <v>89</v>
-      </c>
-      <c r="O8" t="s">
-        <v>89</v>
-      </c>
-      <c r="P8" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>112</v>
-      </c>
       <c r="R8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="S8" t="s">
-        <v>115</v>
-      </c>
-      <c r="T8" s="2">
-        <v>-958.6610000000001</v>
-      </c>
-      <c r="U8" s="2">
-        <v>-1054.87</v>
-      </c>
-      <c r="V8" s="2">
-        <v>-1006.77</v>
-      </c>
-      <c r="W8" s="2">
-        <v>-954.0210000000001</v>
-      </c>
-      <c r="X8" s="2">
-        <v>-1050.16</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>-1002.09</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>-853.45</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>-951.327</v>
-      </c>
-      <c r="AB8" s="2">
-        <v>-902.389</v>
+        <v>117</v>
+      </c>
+      <c r="T8">
+        <v>102.104</v>
+      </c>
+      <c r="U8">
+        <v>102.848</v>
+      </c>
+      <c r="V8">
+        <v>102.476</v>
+      </c>
+      <c r="W8">
+        <v>103.801</v>
+      </c>
+      <c r="X8">
+        <v>104.446</v>
+      </c>
+      <c r="Y8">
+        <v>104.123</v>
+      </c>
+      <c r="Z8">
+        <v>205.916</v>
+      </c>
+      <c r="AA8">
+        <v>206.546</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="AC8" s="3">
-        <v>51.7136</v>
+        <v>33.4093</v>
       </c>
       <c r="AD8" s="3">
-        <v>50.2934</v>
+        <v>32.2636</v>
       </c>
       <c r="AE8" s="3">
-        <v>53.8381</v>
+        <v>35.1582</v>
       </c>
       <c r="AF8" s="3">
-        <v>52.1007</v>
-      </c>
-      <c r="AG8" s="4">
-        <v>42.2453</v>
-      </c>
-      <c r="AH8" s="2">
-        <v>-158.866</v>
-      </c>
-      <c r="AI8">
-        <v>5.6312</v>
-      </c>
-      <c r="AJ8">
-        <v>5.79021</v>
-      </c>
-      <c r="AK8">
-        <v>5.21967</v>
-      </c>
-      <c r="AL8">
-        <v>5.39374</v>
+        <v>33.9585</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>33.3612</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>31.771</v>
+      </c>
+      <c r="AI8" s="4">
+        <v>13.1711</v>
+      </c>
+      <c r="AJ8" s="4">
+        <v>13.6388</v>
+      </c>
+      <c r="AK8" s="4">
+        <v>12.5346</v>
+      </c>
+      <c r="AL8" s="4">
+        <v>12.9775</v>
       </c>
       <c r="AM8">
-        <v>4.45649</v>
-      </c>
-      <c r="AN8" s="2">
-        <v>-1.18506</v>
+        <v>9.112080000000001</v>
+      </c>
+      <c r="AN8">
+        <v>9.568160000000001</v>
       </c>
       <c r="AO8">
-        <v>51.9203</v>
+        <v>50.3848</v>
       </c>
       <c r="AP8">
-        <v>51.9508</v>
+        <v>50.3367</v>
       </c>
       <c r="AQ8">
-        <v>51.0875</v>
+        <v>50.3096</v>
       </c>
       <c r="AR8">
-        <v>638.621</v>
+        <v>759.77</v>
       </c>
       <c r="AS8">
-        <v>153.272</v>
+        <v>26.373</v>
       </c>
       <c r="AT8">
-        <v>250.342</v>
+        <v>173.052</v>
       </c>
       <c r="AU8">
-        <v>541.551</v>
+        <v>613.091</v>
       </c>
       <c r="AV8">
-        <v>395.946</v>
+        <v>393.0719999999999</v>
       </c>
       <c r="AW8">
-        <v>485.349</v>
+        <v>733.3969999999999</v>
       </c>
       <c r="AX8">
-        <v>276.412</v>
+        <v>325.349</v>
       </c>
       <c r="AY8">
-        <v>630.0609999999999</v>
+        <v>760.4229999999999</v>
       </c>
       <c r="AZ8">
-        <v>161.698</v>
+        <v>25.931</v>
       </c>
       <c r="BA8">
-        <v>255.371</v>
+        <v>172.829</v>
       </c>
       <c r="BB8">
-        <v>536.3879999999999</v>
+        <v>613.525</v>
       </c>
       <c r="BC8">
-        <v>395.88</v>
+        <v>393.177</v>
       </c>
       <c r="BD8">
-        <v>468.3629999999999</v>
+        <v>734.4929999999999</v>
       </c>
       <c r="BE8">
-        <v>277.719</v>
+        <v>325.752</v>
       </c>
       <c r="BF8">
-        <v>553.9079999999999</v>
+        <v>645.081</v>
       </c>
       <c r="BG8">
-        <v>240.131</v>
+        <v>138.431</v>
       </c>
       <c r="BH8">
-        <v>302.887</v>
+        <v>239.761</v>
       </c>
       <c r="BI8">
-        <v>491.152</v>
+        <v>543.751</v>
       </c>
       <c r="BJ8">
-        <v>397.019</v>
+        <v>391.756</v>
       </c>
       <c r="BK8">
-        <v>313.776</v>
+        <v>506.65</v>
       </c>
       <c r="BL8">
-        <v>397.413</v>
+        <v>450.89</v>
       </c>
     </row>
     <row r="9" spans="1:64">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M9" t="s">
         <v>99</v>
@@ -2381,186 +2387,186 @@
         <v>99</v>
       </c>
       <c r="Q9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="R9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S9" t="s">
-        <v>77</v>
-      </c>
-      <c r="T9" s="2">
-        <v>-955.932</v>
-      </c>
-      <c r="U9" s="2">
-        <v>-1052.16</v>
-      </c>
-      <c r="V9" s="2">
-        <v>-1004.05</v>
-      </c>
-      <c r="W9" s="2">
-        <v>-951.3170000000001</v>
-      </c>
-      <c r="X9" s="2">
-        <v>-1047.42</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>-999.3680000000001</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>-850.712</v>
-      </c>
-      <c r="AA9" s="2">
-        <v>-948.4739999999999</v>
-      </c>
-      <c r="AB9" s="2">
-        <v>-899.5930000000001</v>
+        <v>78</v>
+      </c>
+      <c r="T9">
+        <v>121.322</v>
+      </c>
+      <c r="U9">
+        <v>122.053</v>
+      </c>
+      <c r="V9">
+        <v>121.688</v>
+      </c>
+      <c r="W9">
+        <v>123.428</v>
+      </c>
+      <c r="X9">
+        <v>124.129</v>
+      </c>
+      <c r="Y9">
+        <v>123.778</v>
+      </c>
+      <c r="Z9">
+        <v>224.86</v>
+      </c>
+      <c r="AA9">
+        <v>225.528</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="AC9" s="3">
-        <v>51.1315</v>
-      </c>
-      <c r="AD9" s="4">
-        <v>49.7193</v>
+        <v>36.6212</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>35.89060000000001</v>
       </c>
       <c r="AE9" s="3">
-        <v>53.3257</v>
+        <v>38.0742</v>
       </c>
       <c r="AF9" s="3">
-        <v>51.6363</v>
-      </c>
-      <c r="AG9" s="4">
-        <v>42.3208</v>
-      </c>
-      <c r="AH9" s="2">
-        <v>-158.708</v>
+        <v>37.2473</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>35.3394</v>
+      </c>
+      <c r="AH9" s="3">
+        <v>34.3258</v>
       </c>
       <c r="AI9">
-        <v>4.83906</v>
+        <v>9.55059</v>
       </c>
       <c r="AJ9">
-        <v>4.9765</v>
+        <v>9.744999999999999</v>
       </c>
       <c r="AK9">
-        <v>4.49058</v>
+        <v>9.15263</v>
       </c>
       <c r="AL9">
-        <v>4.63751</v>
-      </c>
-      <c r="AM9" s="2">
-        <v>3.82503</v>
-      </c>
-      <c r="AN9" s="2">
-        <v>-1.01998</v>
+        <v>9.355829999999999</v>
+      </c>
+      <c r="AM9">
+        <v>6.79653</v>
+      </c>
+      <c r="AN9">
+        <v>6.99723</v>
       </c>
       <c r="AO9">
-        <v>51.8902</v>
+        <v>50.3843</v>
       </c>
       <c r="AP9">
-        <v>51.9519</v>
+        <v>50.3722</v>
       </c>
       <c r="AQ9">
-        <v>51.1309</v>
+        <v>50.3382</v>
       </c>
       <c r="AR9">
-        <v>561.148</v>
+        <v>628.17</v>
       </c>
       <c r="AS9">
-        <v>148.767</v>
+        <v>45.2475</v>
       </c>
       <c r="AT9">
-        <v>231.243</v>
+        <v>161.832</v>
       </c>
       <c r="AU9">
-        <v>478.672</v>
+        <v>511.586</v>
       </c>
       <c r="AV9">
-        <v>354.958</v>
+        <v>336.7089999999999</v>
       </c>
       <c r="AW9">
-        <v>412.38</v>
+        <v>582.923</v>
       </c>
       <c r="AX9">
-        <v>286.291</v>
+        <v>343.079</v>
       </c>
       <c r="AY9">
-        <v>554.2190000000001</v>
+        <v>627.14</v>
       </c>
       <c r="AZ9">
-        <v>155.113</v>
+        <v>46.3413</v>
       </c>
       <c r="BA9">
-        <v>234.934</v>
+        <v>162.501</v>
       </c>
       <c r="BB9">
-        <v>474.397</v>
+        <v>510.98</v>
       </c>
       <c r="BC9">
-        <v>354.666</v>
+        <v>336.741</v>
       </c>
       <c r="BD9">
-        <v>399.106</v>
+        <v>580.799</v>
       </c>
       <c r="BE9">
-        <v>287.563</v>
+        <v>343.595</v>
       </c>
       <c r="BF9">
-        <v>490.304</v>
+        <v>535.5529999999999</v>
       </c>
       <c r="BG9">
-        <v>220.507</v>
+        <v>135.244</v>
       </c>
       <c r="BH9">
-        <v>274.466</v>
+        <v>215.306</v>
       </c>
       <c r="BI9">
-        <v>436.344</v>
+        <v>455.491</v>
       </c>
       <c r="BJ9">
-        <v>355.405</v>
+        <v>335.398</v>
       </c>
       <c r="BK9">
-        <v>269.797</v>
+        <v>400.309</v>
       </c>
       <c r="BL9">
-        <v>407.519</v>
+        <v>466.97</v>
       </c>
     </row>
     <row r="10" spans="1:64">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M10" t="s">
         <v>99</v>
@@ -2575,148 +2581,148 @@
         <v>99</v>
       </c>
       <c r="Q10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="R10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="S10" t="s">
-        <v>113</v>
-      </c>
-      <c r="T10" s="2">
-        <v>-956.7529999999999</v>
-      </c>
-      <c r="U10" s="2">
-        <v>-1052.78</v>
-      </c>
-      <c r="V10" s="2">
-        <v>-1004.77</v>
-      </c>
-      <c r="W10" s="2">
-        <v>-952.138</v>
-      </c>
-      <c r="X10" s="2">
-        <v>-1048.05</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>-1000.09</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>-851.533</v>
-      </c>
-      <c r="AA10" s="2">
-        <v>-949.23</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>-900.381</v>
+        <v>115</v>
+      </c>
+      <c r="T10">
+        <v>121.87</v>
+      </c>
+      <c r="U10">
+        <v>122.793</v>
+      </c>
+      <c r="V10">
+        <v>122.332</v>
+      </c>
+      <c r="W10">
+        <v>123.863</v>
+      </c>
+      <c r="X10">
+        <v>124.672</v>
+      </c>
+      <c r="Y10">
+        <v>124.268</v>
+      </c>
+      <c r="Z10">
+        <v>225.359</v>
+      </c>
+      <c r="AA10">
+        <v>226.358</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="AC10" s="3">
-        <v>52.0793</v>
-      </c>
-      <c r="AD10" s="4">
-        <v>49.9778</v>
+        <v>35.5174</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>34.0261</v>
       </c>
       <c r="AE10" s="3">
-        <v>54.2276</v>
+        <v>37.0987</v>
       </c>
       <c r="AF10" s="3">
-        <v>51.7879</v>
-      </c>
-      <c r="AG10" s="4">
-        <v>42.5254</v>
-      </c>
-      <c r="AH10" s="2">
-        <v>-158.859</v>
-      </c>
-      <c r="AI10">
-        <v>4.92751</v>
-      </c>
-      <c r="AJ10">
-        <v>5.13471</v>
+        <v>35.4606</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>34.5387</v>
+      </c>
+      <c r="AH10" s="3">
+        <v>32.89409999999999</v>
+      </c>
+      <c r="AI10" s="4">
+        <v>10.289</v>
+      </c>
+      <c r="AJ10" s="4">
+        <v>10.74</v>
       </c>
       <c r="AK10">
-        <v>4.56795</v>
-      </c>
-      <c r="AL10">
-        <v>4.78315</v>
-      </c>
-      <c r="AM10" s="2">
-        <v>3.91527</v>
-      </c>
-      <c r="AN10" s="2">
-        <v>-1.04809</v>
+        <v>9.830909999999999</v>
+      </c>
+      <c r="AL10" s="4">
+        <v>10.285</v>
+      </c>
+      <c r="AM10">
+        <v>7.25609</v>
+      </c>
+      <c r="AN10">
+        <v>7.61887</v>
       </c>
       <c r="AO10">
-        <v>51.9945</v>
+        <v>50.4793</v>
       </c>
       <c r="AP10">
-        <v>52.0498</v>
+        <v>50.4233</v>
       </c>
       <c r="AQ10">
-        <v>51.1705</v>
+        <v>50.5013</v>
       </c>
       <c r="AR10">
-        <v>567.804</v>
+        <v>641.343</v>
       </c>
       <c r="AS10">
-        <v>140.102</v>
+        <v>32.2786</v>
       </c>
       <c r="AT10">
-        <v>225.642</v>
+        <v>154.092</v>
       </c>
       <c r="AU10">
-        <v>482.264</v>
+        <v>519.5300000000001</v>
       </c>
       <c r="AV10">
-        <v>353.953</v>
+        <v>336.811</v>
       </c>
       <c r="AW10">
-        <v>427.702</v>
+        <v>609.0649999999999</v>
       </c>
       <c r="AX10">
-        <v>285.865</v>
+        <v>343.976</v>
       </c>
       <c r="AY10">
-        <v>560.222</v>
+        <v>640.828</v>
       </c>
       <c r="AZ10">
-        <v>147.374</v>
+        <v>32.9713</v>
       </c>
       <c r="BA10">
-        <v>229.943</v>
+        <v>154.543</v>
       </c>
       <c r="BB10">
-        <v>477.652</v>
+        <v>519.2569999999999</v>
       </c>
       <c r="BC10">
-        <v>353.798</v>
+        <v>336.9</v>
       </c>
       <c r="BD10">
-        <v>412.849</v>
+        <v>607.857</v>
       </c>
       <c r="BE10">
-        <v>287.105</v>
+        <v>344.409</v>
       </c>
       <c r="BF10">
-        <v>493.574</v>
+        <v>543.9150000000001</v>
       </c>
       <c r="BG10">
-        <v>216.077</v>
+        <v>126.222</v>
       </c>
       <c r="BH10">
-        <v>271.576</v>
+        <v>209.761</v>
       </c>
       <c r="BI10">
-        <v>438.075</v>
+        <v>460.377</v>
       </c>
       <c r="BJ10">
-        <v>354.825</v>
+        <v>335.069</v>
       </c>
       <c r="BK10">
-        <v>277.498</v>
+        <v>417.693</v>
       </c>
       <c r="BL10">
-        <v>406.849</v>
+        <v>468.52</v>
       </c>
     </row>
     <row r="11" spans="1:64" s="1" customFormat="1">
@@ -2915,287 +2921,287 @@
     </row>
     <row r="12" spans="1:64" s="1" customFormat="1">
       <c r="S12" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="T12" s="2">
-        <v>-958.6610000000001</v>
-      </c>
-      <c r="U12" s="2">
-        <v>-1054.87</v>
-      </c>
-      <c r="V12" s="2">
-        <v>-1006.77</v>
-      </c>
-      <c r="W12" s="2">
-        <v>-954.0210000000001</v>
-      </c>
-      <c r="X12" s="2">
-        <v>-1050.16</v>
-      </c>
-      <c r="Y12" s="2">
-        <v>-1002.09</v>
-      </c>
-      <c r="Z12" s="2">
-        <v>-853.45</v>
-      </c>
-      <c r="AA12" s="2">
-        <v>-951.327</v>
-      </c>
-      <c r="AB12" s="2">
-        <v>-902.389</v>
+        <v>120</v>
+      </c>
+      <c r="T12" s="1">
+        <v>102.104</v>
+      </c>
+      <c r="U12" s="1">
+        <v>102.848</v>
+      </c>
+      <c r="V12" s="1">
+        <v>102.476</v>
+      </c>
+      <c r="W12" s="1">
+        <v>103.801</v>
+      </c>
+      <c r="X12" s="1">
+        <v>104.446</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>104.123</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>205.916</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>206.546</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="AC12" s="3">
-        <v>50.5673</v>
-      </c>
-      <c r="AD12" s="4">
-        <v>47.996</v>
+        <v>33.4093</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>32.2636</v>
       </c>
       <c r="AE12" s="3">
-        <v>52.4998</v>
-      </c>
-      <c r="AF12" s="4">
-        <v>49.573</v>
-      </c>
-      <c r="AG12" s="2">
-        <v>-157.262</v>
-      </c>
-      <c r="AH12" s="2">
-        <v>-158.878</v>
+        <v>35.1582</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>33.9585</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>33.3612</v>
+      </c>
+      <c r="AH12" s="3">
+        <v>31.771</v>
       </c>
       <c r="AI12" s="1">
-        <v>4.82022</v>
+        <v>6.93013</v>
       </c>
       <c r="AJ12" s="1">
-        <v>4.9765</v>
+        <v>7.26935</v>
       </c>
       <c r="AK12" s="1">
-        <v>4.47074</v>
+        <v>6.58169</v>
       </c>
       <c r="AL12" s="1">
-        <v>4.63751</v>
-      </c>
-      <c r="AM12" s="2">
-        <v>-1.20619</v>
-      </c>
-      <c r="AN12" s="2">
-        <v>-1.18506</v>
+        <v>6.95304</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>5.2798</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>5.47679</v>
       </c>
       <c r="AO12" s="1">
-        <v>51.8253</v>
+        <v>50.3257</v>
       </c>
       <c r="AP12" s="1">
-        <v>51.8805</v>
+        <v>50.3099</v>
       </c>
       <c r="AQ12" s="1">
-        <v>51.0416</v>
+        <v>50.2565</v>
       </c>
       <c r="AR12" s="1">
-        <v>561.148</v>
+        <v>590.121</v>
       </c>
       <c r="AS12" s="1">
-        <v>140.102</v>
+        <v>26.373</v>
       </c>
       <c r="AT12" s="1">
-        <v>224.799</v>
+        <v>154.092</v>
       </c>
       <c r="AU12" s="1">
-        <v>477.07</v>
+        <v>488.6</v>
       </c>
       <c r="AV12" s="1">
-        <v>350.934</v>
+        <v>336.317</v>
       </c>
       <c r="AW12" s="1">
-        <v>412.38</v>
+        <v>507.607</v>
       </c>
       <c r="AX12" s="1">
-        <v>276.412</v>
+        <v>325.349</v>
       </c>
       <c r="AY12" s="1">
-        <v>554.2190000000001</v>
+        <v>587.048</v>
       </c>
       <c r="AZ12" s="1">
-        <v>147.236</v>
+        <v>25.931</v>
       </c>
       <c r="BA12" s="1">
-        <v>228.649</v>
+        <v>154.543</v>
       </c>
       <c r="BB12" s="1">
-        <v>472.891</v>
+        <v>486.776</v>
       </c>
       <c r="BC12" s="1">
-        <v>350.77</v>
+        <v>336.368</v>
       </c>
       <c r="BD12" s="1">
-        <v>399.106</v>
+        <v>501.36</v>
       </c>
       <c r="BE12" s="1">
-        <v>277.719</v>
+        <v>325.752</v>
       </c>
       <c r="BF12" s="1">
-        <v>490.304</v>
+        <v>510.706</v>
       </c>
       <c r="BG12" s="1">
-        <v>212.254</v>
+        <v>126.222</v>
       </c>
       <c r="BH12" s="1">
-        <v>269.089</v>
+        <v>209.761</v>
       </c>
       <c r="BI12" s="1">
-        <v>436.02</v>
+        <v>440.642</v>
       </c>
       <c r="BJ12" s="1">
-        <v>353.564</v>
+        <v>335.069</v>
       </c>
       <c r="BK12" s="1">
-        <v>269.797</v>
+        <v>350.322</v>
       </c>
       <c r="BL12" s="1">
-        <v>397.413</v>
+        <v>450.89</v>
       </c>
     </row>
     <row r="13" spans="1:64" s="1" customFormat="1">
       <c r="S13" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="T13" s="2">
-        <v>-942.867</v>
-      </c>
-      <c r="U13" s="2">
-        <v>-1036.75</v>
-      </c>
-      <c r="V13" s="2">
-        <v>-989.8060000000002</v>
-      </c>
-      <c r="W13" s="2">
-        <v>-938.546</v>
-      </c>
-      <c r="X13" s="2">
-        <v>-1032.22</v>
-      </c>
-      <c r="Y13" s="2">
-        <v>-985.384</v>
-      </c>
-      <c r="Z13" s="2">
-        <v>-837.7850000000001</v>
-      </c>
-      <c r="AA13" s="2">
-        <v>-933.431</v>
-      </c>
-      <c r="AB13" s="2">
-        <v>-885.6080000000001</v>
+        <v>121</v>
+      </c>
+      <c r="T13" s="1">
+        <v>190.082</v>
+      </c>
+      <c r="U13" s="1">
+        <v>192.192</v>
+      </c>
+      <c r="V13" s="1">
+        <v>191.137</v>
+      </c>
+      <c r="W13" s="1">
+        <v>192.419</v>
+      </c>
+      <c r="X13" s="1">
+        <v>194.561</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>193.49</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>292.388</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>294.391</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="AC13" s="3">
-        <v>52.3361</v>
+        <v>44.4136</v>
       </c>
       <c r="AD13" s="3">
-        <v>50.5715</v>
+        <v>41.897</v>
       </c>
       <c r="AE13" s="3">
-        <v>54.6313</v>
+        <v>46.2995</v>
       </c>
       <c r="AF13" s="3">
-        <v>52.58560000000001</v>
-      </c>
-      <c r="AG13" s="4">
-        <v>44.0573</v>
-      </c>
-      <c r="AH13" s="4">
-        <v>41.7599</v>
-      </c>
-      <c r="AI13" s="1">
-        <v>5.6312</v>
-      </c>
-      <c r="AJ13" s="1">
-        <v>5.89489</v>
-      </c>
-      <c r="AK13" s="1">
-        <v>5.21967</v>
-      </c>
-      <c r="AL13" s="1">
-        <v>5.50338</v>
+        <v>43.2639</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>40.1289</v>
+      </c>
+      <c r="AH13" s="3">
+        <v>38.3789</v>
+      </c>
+      <c r="AI13" s="4">
+        <v>13.1711</v>
+      </c>
+      <c r="AJ13" s="4">
+        <v>13.6388</v>
+      </c>
+      <c r="AK13" s="4">
+        <v>12.5346</v>
+      </c>
+      <c r="AL13" s="4">
+        <v>12.9775</v>
       </c>
       <c r="AM13" s="1">
-        <v>4.45649</v>
+        <v>9.112080000000001</v>
       </c>
       <c r="AN13" s="1">
-        <v>4.63501</v>
+        <v>9.568160000000001</v>
       </c>
       <c r="AO13" s="1">
-        <v>53.0978</v>
+        <v>51.0165</v>
       </c>
       <c r="AP13" s="1">
-        <v>53.2021</v>
+        <v>51.0364</v>
       </c>
       <c r="AQ13" s="1">
-        <v>52.2115</v>
+        <v>50.9501</v>
       </c>
       <c r="AR13" s="1">
-        <v>638.621</v>
+        <v>759.77</v>
       </c>
       <c r="AS13" s="1">
-        <v>168.408</v>
+        <v>82.514</v>
       </c>
       <c r="AT13" s="1">
-        <v>260.103</v>
+        <v>202.073</v>
       </c>
       <c r="AU13" s="1">
-        <v>541.551</v>
+        <v>613.091</v>
       </c>
       <c r="AV13" s="1">
-        <v>397.644</v>
+        <v>393.0719999999999</v>
       </c>
       <c r="AW13" s="1">
-        <v>485.349</v>
+        <v>733.3969999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>432.985</v>
+        <v>408.098</v>
       </c>
       <c r="AY13" s="1">
-        <v>630.0609999999999</v>
+        <v>760.4229999999999</v>
       </c>
       <c r="AZ13" s="1">
-        <v>175.651</v>
+        <v>85.6878</v>
       </c>
       <c r="BA13" s="1">
-        <v>264.314</v>
+        <v>203.728</v>
       </c>
       <c r="BB13" s="1">
-        <v>536.3879999999999</v>
+        <v>613.525</v>
       </c>
       <c r="BC13" s="1">
-        <v>397.308</v>
+        <v>393.177</v>
       </c>
       <c r="BD13" s="1">
-        <v>468.3629999999999</v>
+        <v>734.4929999999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>434.345</v>
+        <v>408.522</v>
       </c>
       <c r="BF13" s="1">
-        <v>555.845</v>
+        <v>645.081</v>
       </c>
       <c r="BG13" s="1">
-        <v>249.129</v>
+        <v>172.83</v>
       </c>
       <c r="BH13" s="1">
-        <v>308.73</v>
+        <v>259.959</v>
       </c>
       <c r="BI13" s="1">
-        <v>492.615</v>
+        <v>543.751</v>
       </c>
       <c r="BJ13" s="1">
-        <v>398.131</v>
+        <v>391.756</v>
       </c>
       <c r="BK13" s="1">
-        <v>316.147</v>
+        <v>506.65</v>
       </c>
       <c r="BL13" s="1">
-        <v>554.16</v>
+        <v>529.399</v>
       </c>
     </row>
     <row r="14" spans="1:64" s="1" customFormat="1">
       <c r="S14" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="T14" s="1">
         <v>500.0000000000001</v>
@@ -3272,7 +3278,7 @@
     </row>
     <row r="15" spans="1:64" s="1" customFormat="1">
       <c r="S15" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="T15" s="1">
         <v>0</v>
@@ -3349,7 +3355,7 @@
     </row>
     <row r="16" spans="1:64" s="1" customFormat="1">
       <c r="S16" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AC16" s="1">
         <v>20</v>
@@ -3399,7 +3405,7 @@
     </row>
     <row r="17" spans="19:64" s="1" customFormat="1">
       <c r="S17" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AC17" s="1">
         <v>0</v>
@@ -3449,422 +3455,422 @@
     </row>
     <row r="18" spans="19:64" s="1" customFormat="1">
       <c r="S18" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="T18" s="1">
-        <v>-952.0361111111112</v>
+        <v>137.7424444444444</v>
       </c>
       <c r="U18" s="1">
-        <v>-1047.687777777778</v>
+        <v>138.828</v>
       </c>
       <c r="V18" s="1">
-        <v>-999.8624444444445</v>
+        <v>138.2851111111111</v>
       </c>
       <c r="W18" s="1">
-        <v>-947.5156666666667</v>
+        <v>139.8884444444444</v>
       </c>
       <c r="X18" s="1">
-        <v>-1043.026666666666</v>
+        <v>140.9321111111111</v>
       </c>
       <c r="Y18" s="1">
-        <v>-995.2703333333334</v>
+        <v>140.4102222222222</v>
       </c>
       <c r="Z18" s="1">
-        <v>-846.746888888889</v>
+        <v>240.9182222222222</v>
       </c>
       <c r="AA18" s="1">
-        <v>-944.189888888889</v>
-      </c>
-      <c r="AB18" s="1">
-        <v>-895.4684444444446</v>
+        <v>241.9537777777778</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="AC18" s="1">
-        <v>51.70203333333333</v>
+        <v>38.61924444444445</v>
       </c>
       <c r="AD18" s="1">
-        <v>49.46857777777778</v>
+        <v>36.89031111111111</v>
       </c>
       <c r="AE18" s="1">
-        <v>53.86171111111111</v>
+        <v>40.2481</v>
       </c>
       <c r="AF18" s="1">
-        <v>51.32742222222222</v>
+        <v>38.26478888888889</v>
       </c>
       <c r="AG18" s="1">
-        <v>20.52366666666667</v>
+        <v>36.54507777777778</v>
       </c>
       <c r="AH18" s="1">
-        <v>-92.06522222222223</v>
+        <v>34.98618888888889</v>
       </c>
       <c r="AI18" s="1">
-        <v>5.201722222222222</v>
+        <v>9.846033333333333</v>
       </c>
       <c r="AJ18" s="1">
-        <v>5.436412222222223</v>
+        <v>10.27322555555556</v>
       </c>
       <c r="AK18" s="1">
-        <v>4.828862222222223</v>
+        <v>9.396240000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>5.067344444444444</v>
+        <v>9.842266666666667</v>
       </c>
       <c r="AM18" s="1">
-        <v>3.499191111111111</v>
+        <v>7.100437777777778</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.6697166666666668</v>
+        <v>7.414666666666666</v>
       </c>
       <c r="AO18" s="1">
-        <v>52.18613333333333</v>
+        <v>50.55346666666667</v>
       </c>
       <c r="AP18" s="1">
-        <v>52.25194444444445</v>
+        <v>50.53373333333334</v>
       </c>
       <c r="AQ18" s="1">
-        <v>51.31</v>
+        <v>50.51903333333333</v>
       </c>
       <c r="AR18" s="1">
-        <v>599.6446666666666</v>
+        <v>677.0684444444445</v>
       </c>
       <c r="AS18" s="1">
-        <v>151.5588888888889</v>
+        <v>54.21302222222222</v>
       </c>
       <c r="AT18" s="1">
-        <v>241.1761111111111</v>
+        <v>178.784</v>
       </c>
       <c r="AU18" s="1">
-        <v>510.0274444444445</v>
+        <v>552.4973333333332</v>
       </c>
       <c r="AV18" s="1">
-        <v>375.6017777777778</v>
+        <v>365.6407777777778</v>
       </c>
       <c r="AW18" s="1">
-        <v>448.0855555555556</v>
+        <v>622.8555555555554</v>
       </c>
       <c r="AX18" s="1">
-        <v>333.0187777777778</v>
+        <v>358.59</v>
       </c>
       <c r="AY18" s="1">
-        <v>592.0293333333333</v>
+        <v>675.549111111111</v>
       </c>
       <c r="AZ18" s="1">
-        <v>158.7161111111111</v>
+        <v>55.88348888888888</v>
       </c>
       <c r="BA18" s="1">
-        <v>245.3786666666666</v>
+        <v>179.8166666666667</v>
       </c>
       <c r="BB18" s="1">
-        <v>505.3664444444444</v>
+        <v>551.616111111111</v>
       </c>
       <c r="BC18" s="1">
-        <v>375.3726666666667</v>
+        <v>365.7164444444445</v>
       </c>
       <c r="BD18" s="1">
-        <v>433.3133333333333</v>
+        <v>619.6656666666665</v>
       </c>
       <c r="BE18" s="1">
-        <v>334.3346666666667</v>
+        <v>359.0737777777778</v>
       </c>
       <c r="BF18" s="1">
-        <v>523.6834444444444</v>
+        <v>578.4862222222223</v>
       </c>
       <c r="BG18" s="1">
-        <v>229.8052222222222</v>
+        <v>150.0481111111111</v>
       </c>
       <c r="BH18" s="1">
-        <v>288.581</v>
+        <v>235.7358888888889</v>
       </c>
       <c r="BI18" s="1">
-        <v>464.9077777777778</v>
+        <v>492.7987777777778</v>
       </c>
       <c r="BJ18" s="1">
-        <v>376.7442222222222</v>
+        <v>364.2672222222222</v>
       </c>
       <c r="BK18" s="1">
-        <v>293.8783333333333</v>
+        <v>428.4382222222223</v>
       </c>
       <c r="BL18" s="1">
-        <v>454.0411111111111</v>
+        <v>481.9499999999999</v>
       </c>
     </row>
     <row r="19" spans="19:64" s="1" customFormat="1">
       <c r="S19" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="T19" s="1">
-        <v>5.31574768326139</v>
+        <v>28.66942834802378</v>
       </c>
       <c r="U19" s="1">
-        <v>6.03990761109949</v>
+        <v>29.10495161384819</v>
       </c>
       <c r="V19" s="1">
-        <v>5.675012248858279</v>
+        <v>28.88694793864309</v>
       </c>
       <c r="W19" s="1">
-        <v>5.214093358922097</v>
+        <v>28.86022612181806</v>
       </c>
       <c r="X19" s="1">
-        <v>5.974203805622215</v>
+        <v>29.33370345389391</v>
       </c>
       <c r="Y19" s="1">
-        <v>5.588796948658399</v>
+        <v>29.09681032071223</v>
       </c>
       <c r="Z19" s="1">
-        <v>5.388440166884913</v>
+        <v>28.1589235699322</v>
       </c>
       <c r="AA19" s="1">
-        <v>5.907664220587518</v>
-      </c>
-      <c r="AB19" s="1">
-        <v>5.644364369510736</v>
+        <v>28.56421652183328</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="AC19" s="1">
-        <v>0.5369345252863196</v>
+        <v>3.703576100387032</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.8624273725013047</v>
+        <v>3.034047787085924</v>
       </c>
       <c r="AE19" s="1">
-        <v>0.6099388247001027</v>
+        <v>3.772595019641284</v>
       </c>
       <c r="AF19" s="1">
-        <v>0.952586090338387</v>
+        <v>2.930525776278397</v>
       </c>
       <c r="AG19" s="1">
-        <v>62.85894662970065</v>
+        <v>2.323964933651002</v>
       </c>
       <c r="AH19" s="1">
-        <v>94.31150287989239</v>
+        <v>2.147903615903163</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.3301857942222422</v>
+        <v>1.901181615440484</v>
       </c>
       <c r="AJ19" s="1">
-        <v>0.3337730897806598</v>
+        <v>1.876521973877981</v>
       </c>
       <c r="AK19" s="1">
-        <v>0.3090929570993087</v>
+        <v>1.824803689453867</v>
       </c>
       <c r="AL19" s="1">
-        <v>0.3164008272257451</v>
+        <v>1.779886524329259</v>
       </c>
       <c r="AM19" s="1">
-        <v>1.679765781116486</v>
+        <v>1.163691106950234</v>
       </c>
       <c r="AN19" s="1">
-        <v>2.529406986680211</v>
+        <v>1.210575793514989</v>
       </c>
       <c r="AO19" s="1">
-        <v>0.4408236054377208</v>
+        <v>0.2144025652831613</v>
       </c>
       <c r="AP19" s="1">
-        <v>0.4579754751102622</v>
+        <v>0.2321985118145443</v>
       </c>
       <c r="AQ19" s="1">
-        <v>0.3364005383798048</v>
+        <v>0.2076208991835299</v>
       </c>
       <c r="AR19" s="1">
-        <v>33.04078144421595</v>
+        <v>59.66414617602083</v>
       </c>
       <c r="AS19" s="1">
-        <v>9.109272460818811</v>
+        <v>18.63606849238432</v>
       </c>
       <c r="AT19" s="1">
-        <v>13.15972896077223</v>
+        <v>13.86926108742319</v>
       </c>
       <c r="AU19" s="1">
-        <v>27.89973028985969</v>
+        <v>46.04197158149412</v>
       </c>
       <c r="AV19" s="1">
-        <v>20.32335218837777</v>
+        <v>26.59990317767583</v>
       </c>
       <c r="AW19" s="1">
-        <v>26.40424018604718</v>
+        <v>70.59751952852342</v>
       </c>
       <c r="AX19" s="1">
-        <v>64.25185992600228</v>
+        <v>26.89124237450633</v>
       </c>
       <c r="AY19" s="1">
-        <v>32.52833414117602</v>
+        <v>60.4123032749758</v>
       </c>
       <c r="AZ19" s="1">
-        <v>9.395020837827342</v>
+        <v>19.84735085711522</v>
       </c>
       <c r="BA19" s="1">
-        <v>13.39260215359376</v>
+        <v>14.29046694672904</v>
       </c>
       <c r="BB19" s="1">
-        <v>27.59089490357728</v>
+        <v>46.45069617572893</v>
       </c>
       <c r="BC19" s="1">
-        <v>20.30858417845353</v>
+        <v>26.60751125407641</v>
       </c>
       <c r="BD19" s="1">
-        <v>25.35696882077543</v>
+        <v>72.49341542819209</v>
       </c>
       <c r="BE19" s="1">
-        <v>64.31266512040135</v>
+        <v>26.88973043862154</v>
       </c>
       <c r="BF19" s="1">
-        <v>28.33788582293286</v>
+        <v>48.67545072502107</v>
       </c>
       <c r="BG19" s="1">
-        <v>12.73253889998009</v>
+        <v>13.77945407275665</v>
       </c>
       <c r="BH19" s="1">
-        <v>15.61236113540238</v>
+        <v>15.94395806459087</v>
       </c>
       <c r="BI19" s="1">
-        <v>25.06560467953282</v>
+        <v>39.52040188104755</v>
       </c>
       <c r="BJ19" s="1">
-        <v>20.24428189653002</v>
+        <v>26.43952586470902</v>
       </c>
       <c r="BK19" s="1">
-        <v>17.05811470630131</v>
+        <v>48.18860106516151</v>
       </c>
       <c r="BL19" s="1">
-        <v>64.11388842857761</v>
+        <v>25.54015890492635</v>
       </c>
     </row>
     <row r="20" spans="19:64" s="1" customFormat="1">
       <c r="S20" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="T20" s="1">
-        <v>0.5583556780275317</v>
+        <v>20.81379379003761</v>
       </c>
       <c r="U20" s="1">
-        <v>0.5764988137888345</v>
+        <v>20.96475611104978</v>
       </c>
       <c r="V20" s="1">
-        <v>0.5675792985715647</v>
+        <v>20.88941297189444</v>
       </c>
       <c r="W20" s="1">
-        <v>0.550290991732636</v>
+        <v>20.63088644414776</v>
       </c>
       <c r="X20" s="1">
-        <v>0.5727757493214188</v>
+        <v>20.81406659037923</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.5615355709378523</v>
+        <v>20.72271509880652</v>
       </c>
       <c r="Z20" s="1">
-        <v>0.6363696445292745</v>
+        <v>11.68816676056928</v>
       </c>
       <c r="AA20" s="1">
-        <v>0.625686028849513</v>
-      </c>
-      <c r="AB20" s="1">
-        <v>0.630325323525224</v>
+        <v>11.80565014697479</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="AC20" s="1">
-        <v>1.038517231662042</v>
+        <v>9.589975551476146</v>
       </c>
       <c r="AD20" s="1">
-        <v>1.743384207194094</v>
+        <v>8.224511248895618</v>
       </c>
       <c r="AE20" s="1">
-        <v>1.132416353134163</v>
+        <v>9.373349349761314</v>
       </c>
       <c r="AF20" s="1">
-        <v>1.855900898771348</v>
+        <v>7.658544216166697</v>
       </c>
       <c r="AG20" s="1">
-        <v>306.2754216905717</v>
+        <v>6.359173587705842</v>
       </c>
       <c r="AH20" s="1">
-        <v>102.4398796890407</v>
+        <v>6.139290057355478</v>
       </c>
       <c r="AI20" s="1">
-        <v>6.347624500432933</v>
+        <v>19.30911211730427</v>
       </c>
       <c r="AJ20" s="1">
-        <v>6.13958390455212</v>
+        <v>18.26614205762468</v>
       </c>
       <c r="AK20" s="1">
-        <v>6.400947943324532</v>
+        <v>19.42057343633056</v>
       </c>
       <c r="AL20" s="1">
-        <v>6.243917907980963</v>
+        <v>18.08411196942363</v>
       </c>
       <c r="AM20" s="1">
-        <v>48.00440238267247</v>
+        <v>16.38900506377558</v>
       </c>
       <c r="AN20" s="1">
-        <v>377.6831476017535</v>
+        <v>16.32677297493691</v>
       </c>
       <c r="AO20" s="1">
-        <v>0.8447140596181121</v>
+        <v>0.42411050996139</v>
       </c>
       <c r="AP20" s="1">
-        <v>0.8764754689601896</v>
+        <v>0.4594920986401379</v>
       </c>
       <c r="AQ20" s="1">
-        <v>0.655623734905096</v>
+        <v>0.4109755976794157</v>
       </c>
       <c r="AR20" s="1">
-        <v>5.510060087398863</v>
+        <v>8.812129211689536</v>
       </c>
       <c r="AS20" s="1">
-        <v>6.010384826387198</v>
+        <v>34.3756310356468</v>
       </c>
       <c r="AT20" s="1">
-        <v>5.456481116701264</v>
+        <v>7.757551619509122</v>
       </c>
       <c r="AU20" s="1">
-        <v>5.470240982865131</v>
+        <v>8.33342874321459</v>
       </c>
       <c r="AV20" s="1">
-        <v>5.410877527955138</v>
+        <v>7.274873262041416</v>
       </c>
       <c r="AW20" s="1">
-        <v>5.892678275091924</v>
+        <v>11.3344930295362</v>
       </c>
       <c r="AX20" s="1">
-        <v>19.29376486057411</v>
+        <v>7.499161263422383</v>
       </c>
       <c r="AY20" s="1">
-        <v>5.494378793366549</v>
+        <v>8.942695990764095</v>
       </c>
       <c r="AZ20" s="1">
-        <v>5.919386993580156</v>
+        <v>35.51559011746204</v>
       </c>
       <c r="BA20" s="1">
-        <v>5.457932564197551</v>
+        <v>7.947242717617412</v>
       </c>
       <c r="BB20" s="1">
-        <v>5.459581894858155</v>
+        <v>8.420837470131914</v>
       </c>
       <c r="BC20" s="1">
-        <v>5.410245865474184</v>
+        <v>7.2754484131813</v>
       </c>
       <c r="BD20" s="1">
-        <v>5.851878276099382</v>
+        <v>11.69879490308894</v>
       </c>
       <c r="BE20" s="1">
-        <v>19.23601454841696</v>
+        <v>7.488636626443648</v>
       </c>
       <c r="BF20" s="1">
-        <v>5.411262495226566</v>
+        <v>8.41428003903655</v>
       </c>
       <c r="BG20" s="1">
-        <v>5.540578572086448</v>
+        <v>9.183357238367982</v>
       </c>
       <c r="BH20" s="1">
-        <v>5.410044713755368</v>
+        <v>6.763483549212927</v>
       </c>
       <c r="BI20" s="1">
-        <v>5.39152190555822</v>
+        <v>8.019581959853975</v>
       </c>
       <c r="BJ20" s="1">
-        <v>5.373481715822824</v>
+        <v>7.258277509410252</v>
       </c>
       <c r="BK20" s="1">
-        <v>5.804481913592806</v>
+        <v>11.24750280570604</v>
       </c>
       <c r="BL20" s="1">
-        <v>14.12072318114117</v>
+        <v>5.299337878395342</v>
       </c>
     </row>
     <row r="21" spans="19:64" s="1" customFormat="1"/>

--- a/testout_top_timing_tran_halffreq_post_termination_tsmc2ff_meas.xlsx
+++ b/testout_top_timing_tran_halffreq_post_termination_tsmc2ff_meas.xlsx
@@ -438,7 +438,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,6 +463,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0094D1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -476,12 +482,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1038,139 +1045,139 @@
         <v>78</v>
       </c>
       <c r="T2">
-        <v>129.118</v>
+        <v>138.261</v>
       </c>
       <c r="U2">
-        <v>130.019</v>
+        <v>138.888</v>
       </c>
       <c r="V2">
-        <v>129.568</v>
+        <v>138.575</v>
       </c>
       <c r="W2">
-        <v>131.338</v>
+        <v>142.74</v>
       </c>
       <c r="X2">
-        <v>132.154</v>
+        <v>143.478</v>
       </c>
       <c r="Y2">
-        <v>131.746</v>
+        <v>143.109</v>
       </c>
       <c r="Z2">
-        <v>232.43</v>
+        <v>242.968</v>
       </c>
       <c r="AA2">
-        <v>233.389</v>
+        <v>243.318</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AC2" s="3">
-        <v>37.9265</v>
+        <v>49.2527</v>
       </c>
       <c r="AD2" s="3">
-        <v>36.2947</v>
-      </c>
-      <c r="AE2" s="3">
-        <v>39.4489</v>
+        <v>46.8917</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>50.3009</v>
       </c>
       <c r="AF2" s="3">
-        <v>37.5958</v>
+        <v>47.8044</v>
       </c>
       <c r="AG2" s="3">
-        <v>36.1495</v>
+        <v>42.1253</v>
       </c>
       <c r="AH2" s="3">
-        <v>34.5729</v>
-      </c>
-      <c r="AI2" s="4">
-        <v>10.2202</v>
-      </c>
-      <c r="AJ2" s="4">
-        <v>10.6797</v>
+        <v>40.9436</v>
+      </c>
+      <c r="AI2">
+        <v>6.31483</v>
+      </c>
+      <c r="AJ2">
+        <v>6.63279</v>
       </c>
       <c r="AK2">
-        <v>9.77965</v>
-      </c>
-      <c r="AL2" s="4">
-        <v>10.2617</v>
+        <v>5.99411</v>
+      </c>
+      <c r="AL2">
+        <v>6.30714</v>
       </c>
       <c r="AM2">
-        <v>7.34947</v>
+        <v>5.05436</v>
       </c>
       <c r="AN2">
-        <v>7.68461</v>
+        <v>5.20023</v>
       </c>
       <c r="AO2">
-        <v>50.4706</v>
+        <v>50.2576</v>
       </c>
       <c r="AP2">
-        <v>50.4299</v>
+        <v>50.3248</v>
       </c>
       <c r="AQ2">
-        <v>50.4873</v>
+        <v>50.1093</v>
       </c>
       <c r="AR2">
-        <v>696.8339999999999</v>
+        <v>631.321</v>
       </c>
       <c r="AS2">
-        <v>50.806</v>
+        <v>112.95</v>
       </c>
       <c r="AT2">
-        <v>180.012</v>
+        <v>216.625</v>
       </c>
       <c r="AU2">
-        <v>567.628</v>
+        <v>527.6469999999999</v>
       </c>
       <c r="AV2">
-        <v>373.82</v>
+        <v>372.136</v>
       </c>
       <c r="AW2">
-        <v>646.028</v>
+        <v>518.371</v>
       </c>
       <c r="AX2">
-        <v>350.463</v>
+        <v>361.609</v>
       </c>
       <c r="AY2">
-        <v>695.414</v>
+        <v>623.3049999999999</v>
       </c>
       <c r="AZ2">
-        <v>52.4198</v>
+        <v>120.79</v>
       </c>
       <c r="BA2">
-        <v>181.019</v>
+        <v>221.293</v>
       </c>
       <c r="BB2">
-        <v>566.8149999999999</v>
+        <v>522.802</v>
       </c>
       <c r="BC2">
-        <v>373.917</v>
+        <v>372.048</v>
       </c>
       <c r="BD2">
-        <v>642.9939999999999</v>
+        <v>502.515</v>
       </c>
       <c r="BE2">
-        <v>350.98</v>
+        <v>363.882</v>
       </c>
       <c r="BF2">
-        <v>593.504</v>
+        <v>548.705</v>
       </c>
       <c r="BG2">
-        <v>150.705</v>
+        <v>193.845</v>
       </c>
       <c r="BH2">
-        <v>239.265</v>
+        <v>264.817</v>
       </c>
       <c r="BI2">
-        <v>504.945</v>
+        <v>477.733</v>
       </c>
       <c r="BJ2">
-        <v>372.105</v>
+        <v>371.275</v>
       </c>
       <c r="BK2">
-        <v>442.799</v>
+        <v>354.86</v>
       </c>
       <c r="BL2">
-        <v>474.131</v>
+        <v>485.263</v>
       </c>
     </row>
     <row r="3" spans="1:64">
@@ -1232,139 +1239,139 @@
         <v>94</v>
       </c>
       <c r="T3">
-        <v>144.897</v>
+        <v>153.052</v>
       </c>
       <c r="U3">
-        <v>145.838</v>
+        <v>153.965</v>
       </c>
       <c r="V3">
-        <v>145.367</v>
+        <v>153.509</v>
       </c>
       <c r="W3">
-        <v>147.281</v>
+        <v>157.468</v>
       </c>
       <c r="X3">
-        <v>148.211</v>
+        <v>158.507</v>
       </c>
       <c r="Y3">
-        <v>147.746</v>
+        <v>157.987</v>
       </c>
       <c r="Z3">
-        <v>247.834</v>
+        <v>257.769</v>
       </c>
       <c r="AA3">
-        <v>248.734</v>
+        <v>258.107</v>
       </c>
       <c r="AB3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AC3" s="3">
-        <v>40.8551</v>
+      <c r="AC3" s="4">
+        <v>51.1674</v>
       </c>
       <c r="AD3" s="3">
-        <v>39.2442</v>
-      </c>
-      <c r="AE3" s="3">
-        <v>42.4156</v>
-      </c>
-      <c r="AF3" s="3">
-        <v>40.54000000000001</v>
+        <v>49.1962</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>52.1629</v>
+      </c>
+      <c r="AF3" s="4">
+        <v>50.1415</v>
       </c>
       <c r="AG3" s="3">
-        <v>37.9968</v>
+        <v>43.0694</v>
       </c>
       <c r="AH3" s="3">
-        <v>36.6774</v>
+        <v>42.0473</v>
       </c>
       <c r="AI3">
-        <v>9.30345</v>
+        <v>5.78704</v>
       </c>
       <c r="AJ3">
-        <v>9.68535</v>
+        <v>6.01892</v>
       </c>
       <c r="AK3">
-        <v>8.886369999999999</v>
+        <v>5.49109</v>
       </c>
       <c r="AL3">
-        <v>9.297499999999999</v>
+        <v>5.71245</v>
       </c>
       <c r="AM3">
-        <v>6.87922</v>
+        <v>4.6839</v>
       </c>
       <c r="AN3">
-        <v>7.12667</v>
+        <v>4.79776</v>
       </c>
       <c r="AO3">
-        <v>50.4953</v>
+        <v>50.3833</v>
       </c>
       <c r="AP3">
-        <v>50.4894</v>
+        <v>50.4625</v>
       </c>
       <c r="AQ3">
-        <v>50.4723</v>
+        <v>50.0902</v>
       </c>
       <c r="AR3">
-        <v>708.865</v>
+        <v>637.0799999999999</v>
       </c>
       <c r="AS3">
-        <v>75.3751</v>
+        <v>143.566</v>
       </c>
       <c r="AT3">
-        <v>202.073</v>
+        <v>242.269</v>
       </c>
       <c r="AU3">
-        <v>582.167</v>
+        <v>538.377</v>
       </c>
       <c r="AV3">
-        <v>392.12</v>
+        <v>390.323</v>
       </c>
       <c r="AW3">
-        <v>633.49</v>
+        <v>493.513</v>
       </c>
       <c r="AX3">
-        <v>364.876</v>
+        <v>374.931</v>
       </c>
       <c r="AY3">
-        <v>706.2889999999999</v>
+        <v>628.912</v>
       </c>
       <c r="AZ3">
-        <v>78.0881</v>
+        <v>151.527</v>
       </c>
       <c r="BA3">
-        <v>203.728</v>
+        <v>247.004</v>
       </c>
       <c r="BB3">
-        <v>580.649</v>
+        <v>533.4349999999999</v>
       </c>
       <c r="BC3">
-        <v>392.189</v>
+        <v>390.219</v>
       </c>
       <c r="BD3">
-        <v>628.201</v>
+        <v>477.385</v>
       </c>
       <c r="BE3">
-        <v>365.4570000000001</v>
+        <v>376.956</v>
       </c>
       <c r="BF3">
-        <v>608.4770000000001</v>
+        <v>558.151</v>
       </c>
       <c r="BG3">
-        <v>172.83</v>
+        <v>221.929</v>
       </c>
       <c r="BH3">
-        <v>259.959</v>
+        <v>289.173</v>
       </c>
       <c r="BI3">
-        <v>521.347</v>
+        <v>490.906</v>
       </c>
       <c r="BJ3">
-        <v>390.653</v>
+        <v>390.04</v>
       </c>
       <c r="BK3">
-        <v>435.647</v>
+        <v>336.222</v>
       </c>
       <c r="BL3">
-        <v>487.372</v>
+        <v>498.057</v>
       </c>
     </row>
     <row r="4" spans="1:64">
@@ -1426,139 +1433,139 @@
         <v>97</v>
       </c>
       <c r="T4">
-        <v>146.142</v>
+        <v>154.926</v>
       </c>
       <c r="U4">
-        <v>147.299</v>
+        <v>155.783</v>
       </c>
       <c r="V4">
-        <v>146.72</v>
+        <v>155.354</v>
       </c>
       <c r="W4">
-        <v>148.486</v>
+        <v>159.323</v>
       </c>
       <c r="X4">
-        <v>149.578</v>
+        <v>160.33</v>
       </c>
       <c r="Y4">
-        <v>149.032</v>
+        <v>159.827</v>
       </c>
       <c r="Z4">
-        <v>249.064</v>
+        <v>259.548</v>
       </c>
       <c r="AA4">
-        <v>250.308</v>
+        <v>259.973</v>
       </c>
       <c r="AB4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AC4" s="3">
-        <v>39.9378</v>
+      <c r="AC4" s="4">
+        <v>51.271</v>
       </c>
       <c r="AD4" s="3">
-        <v>37.4801</v>
-      </c>
-      <c r="AE4" s="3">
-        <v>41.54349999999999</v>
+        <v>47.9096</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>52.2569</v>
       </c>
       <c r="AF4" s="3">
-        <v>38.7077</v>
+        <v>48.77160000000001</v>
       </c>
       <c r="AG4" s="3">
-        <v>37.53340000000001</v>
+        <v>43.0993</v>
       </c>
       <c r="AH4" s="3">
-        <v>35.5571</v>
+        <v>41.4722</v>
       </c>
       <c r="AI4">
-        <v>9.965909999999999</v>
-      </c>
-      <c r="AJ4" s="4">
-        <v>10.6194</v>
+        <v>6.14926</v>
+      </c>
+      <c r="AJ4">
+        <v>6.5807</v>
       </c>
       <c r="AK4">
-        <v>9.51248</v>
-      </c>
-      <c r="AL4" s="4">
-        <v>10.2094</v>
+        <v>5.83586</v>
+      </c>
+      <c r="AL4">
+        <v>6.2529</v>
       </c>
       <c r="AM4">
-        <v>7.30374</v>
+        <v>4.99106</v>
       </c>
       <c r="AN4">
-        <v>7.70969</v>
+        <v>5.18688</v>
       </c>
       <c r="AO4">
-        <v>50.6025</v>
+        <v>50.3669</v>
       </c>
       <c r="AP4">
-        <v>50.5699</v>
+        <v>50.458</v>
       </c>
       <c r="AQ4">
-        <v>50.6419</v>
+        <v>50.1364</v>
       </c>
       <c r="AR4">
-        <v>724.188</v>
+        <v>653.026</v>
       </c>
       <c r="AS4">
-        <v>60.8273</v>
+        <v>127.561</v>
       </c>
       <c r="AT4">
-        <v>193.499</v>
+        <v>232.654</v>
       </c>
       <c r="AU4">
-        <v>591.5160000000001</v>
+        <v>547.933</v>
       </c>
       <c r="AV4">
-        <v>392.508</v>
+        <v>390.294</v>
       </c>
       <c r="AW4">
-        <v>663.361</v>
+        <v>525.4649999999999</v>
       </c>
       <c r="AX4">
-        <v>366.531</v>
+        <v>377.165</v>
       </c>
       <c r="AY4">
-        <v>721.952</v>
+        <v>644.325</v>
       </c>
       <c r="AZ4">
-        <v>63.3156</v>
+        <v>136.052</v>
       </c>
       <c r="BA4">
-        <v>195.043</v>
+        <v>237.706</v>
       </c>
       <c r="BB4">
-        <v>590.225</v>
+        <v>542.67</v>
       </c>
       <c r="BC4">
-        <v>392.634</v>
+        <v>390.188</v>
       </c>
       <c r="BD4">
-        <v>658.636</v>
+        <v>508.273</v>
       </c>
       <c r="BE4">
-        <v>367.06</v>
+        <v>379.298</v>
       </c>
       <c r="BF4">
-        <v>619.206</v>
+        <v>568.8779999999999</v>
       </c>
       <c r="BG4">
-        <v>162.316</v>
+        <v>210.359</v>
       </c>
       <c r="BH4">
-        <v>253.694</v>
+        <v>282.062</v>
       </c>
       <c r="BI4">
-        <v>527.828</v>
+        <v>497.174</v>
       </c>
       <c r="BJ4">
-        <v>390.761</v>
+        <v>389.618</v>
       </c>
       <c r="BK4">
-        <v>456.89</v>
+        <v>358.5189999999999</v>
       </c>
       <c r="BL4">
-        <v>489.574</v>
+        <v>500.386</v>
       </c>
     </row>
     <row r="5" spans="1:64">
@@ -1620,139 +1627,139 @@
         <v>101</v>
       </c>
       <c r="T5">
-        <v>178.355</v>
+        <v>185.474</v>
       </c>
       <c r="U5">
-        <v>179.99</v>
+        <v>187.382</v>
       </c>
       <c r="V5">
-        <v>179.172</v>
+        <v>186.428</v>
       </c>
       <c r="W5">
-        <v>180.714</v>
+        <v>189.769</v>
       </c>
       <c r="X5">
-        <v>182.379</v>
+        <v>191.804</v>
       </c>
       <c r="Y5">
-        <v>181.546</v>
+        <v>190.787</v>
       </c>
       <c r="Z5">
-        <v>280.837</v>
+        <v>290.329</v>
       </c>
       <c r="AA5">
-        <v>282.236</v>
+        <v>291.031</v>
       </c>
       <c r="AB5" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AC5" s="3">
-        <v>43.9479</v>
-      </c>
-      <c r="AD5" s="3">
-        <v>41.897</v>
-      </c>
-      <c r="AE5" s="3">
-        <v>45.705</v>
-      </c>
-      <c r="AF5" s="3">
-        <v>43.2639</v>
+      <c r="AC5" s="4">
+        <v>53.1904</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>50.9235</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>54.0574</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>51.8012</v>
       </c>
       <c r="AG5" s="3">
-        <v>39.8109</v>
+        <v>44.2579</v>
       </c>
       <c r="AH5" s="3">
-        <v>38.3789</v>
+        <v>42.956</v>
       </c>
       <c r="AI5">
-        <v>6.93013</v>
+        <v>4.30401</v>
       </c>
       <c r="AJ5">
-        <v>7.26935</v>
+        <v>4.49561</v>
       </c>
       <c r="AK5">
-        <v>6.58169</v>
+        <v>4.08718</v>
       </c>
       <c r="AL5">
-        <v>6.95304</v>
-      </c>
-      <c r="AM5">
-        <v>5.2798</v>
-      </c>
-      <c r="AN5">
-        <v>5.47679</v>
+        <v>4.2652</v>
+      </c>
+      <c r="AM5" s="5">
+        <v>3.52017</v>
+      </c>
+      <c r="AN5" s="5">
+        <v>3.62686</v>
       </c>
       <c r="AO5">
-        <v>50.8222</v>
+        <v>50.8037</v>
       </c>
       <c r="AP5">
-        <v>50.8359</v>
+        <v>50.8926</v>
       </c>
       <c r="AQ5">
-        <v>50.7141</v>
+        <v>50.1948</v>
       </c>
       <c r="AR5">
-        <v>590.121</v>
+        <v>525.563</v>
       </c>
       <c r="AS5">
-        <v>82.514</v>
+        <v>144.01</v>
       </c>
       <c r="AT5">
-        <v>184.035</v>
+        <v>220.321</v>
       </c>
       <c r="AU5">
-        <v>488.6</v>
+        <v>449.253</v>
       </c>
       <c r="AV5">
-        <v>336.317</v>
+        <v>334.787</v>
       </c>
       <c r="AW5">
-        <v>507.607</v>
+        <v>381.5529999999999</v>
       </c>
       <c r="AX5">
-        <v>396.376</v>
+        <v>405.142</v>
       </c>
       <c r="AY5">
-        <v>587.048</v>
+        <v>518.7819999999999</v>
       </c>
       <c r="AZ5">
-        <v>85.6878</v>
+        <v>150.545</v>
       </c>
       <c r="BA5">
-        <v>185.96</v>
+        <v>224.192</v>
       </c>
       <c r="BB5">
-        <v>486.776</v>
+        <v>445.135</v>
       </c>
       <c r="BC5">
-        <v>336.368</v>
+        <v>334.664</v>
       </c>
       <c r="BD5">
-        <v>501.36</v>
+        <v>368.238</v>
       </c>
       <c r="BE5">
-        <v>396.837</v>
+        <v>406.916</v>
       </c>
       <c r="BF5">
-        <v>510.706</v>
+        <v>465.354</v>
       </c>
       <c r="BG5">
-        <v>160.384</v>
+        <v>205.695</v>
       </c>
       <c r="BH5">
-        <v>230.449</v>
+        <v>257.627</v>
       </c>
       <c r="BI5">
-        <v>440.642</v>
+        <v>413.422</v>
       </c>
       <c r="BJ5">
-        <v>335.545</v>
+        <v>335.524</v>
       </c>
       <c r="BK5">
-        <v>350.322</v>
+        <v>259.659</v>
       </c>
       <c r="BL5">
-        <v>517.581</v>
+        <v>527.619</v>
       </c>
     </row>
     <row r="6" spans="1:64">
@@ -1814,139 +1821,139 @@
         <v>103</v>
       </c>
       <c r="T6">
-        <v>190.082</v>
+        <v>197.538</v>
       </c>
       <c r="U6">
-        <v>192.192</v>
+        <v>199.774</v>
       </c>
       <c r="V6">
-        <v>191.137</v>
+        <v>198.656</v>
       </c>
       <c r="W6">
-        <v>192.419</v>
+        <v>201.794</v>
       </c>
       <c r="X6">
-        <v>194.561</v>
+        <v>204.164</v>
       </c>
       <c r="Y6">
-        <v>193.49</v>
+        <v>202.979</v>
       </c>
       <c r="Z6">
-        <v>292.388</v>
+        <v>302.326</v>
       </c>
       <c r="AA6">
-        <v>294.391</v>
+        <v>303.348</v>
       </c>
       <c r="AB6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AC6" s="3">
-        <v>44.4136</v>
-      </c>
-      <c r="AD6" s="3">
-        <v>40.6429</v>
-      </c>
-      <c r="AE6" s="3">
-        <v>46.2995</v>
-      </c>
-      <c r="AF6" s="3">
-        <v>41.8423</v>
+      <c r="AC6" s="4">
+        <v>54.4093</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>50.0155</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>55.22770000000001</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>50.80860000000001</v>
       </c>
       <c r="AG6" s="3">
-        <v>40.1289</v>
+        <v>44.84460000000001</v>
       </c>
       <c r="AH6" s="3">
-        <v>37.7199</v>
+        <v>42.6106</v>
       </c>
       <c r="AI6">
-        <v>7.13122</v>
+        <v>4.39189</v>
       </c>
       <c r="AJ6">
-        <v>7.79283</v>
+        <v>4.77771</v>
       </c>
       <c r="AK6">
-        <v>6.75623</v>
+        <v>4.17335</v>
       </c>
       <c r="AL6">
-        <v>7.47593</v>
-      </c>
-      <c r="AM6">
-        <v>5.46021</v>
-      </c>
-      <c r="AN6">
-        <v>5.80892</v>
+        <v>4.53633</v>
+      </c>
+      <c r="AM6" s="5">
+        <v>3.62784</v>
+      </c>
+      <c r="AN6" s="5">
+        <v>3.81804</v>
       </c>
       <c r="AO6">
-        <v>51.0165</v>
+        <v>50.9047</v>
       </c>
       <c r="AP6">
-        <v>51.0364</v>
+        <v>51.0007</v>
       </c>
       <c r="AQ6">
-        <v>50.9501</v>
+        <v>50.2547</v>
       </c>
       <c r="AR6">
-        <v>600.394</v>
+        <v>533.288</v>
       </c>
       <c r="AS6">
-        <v>72.52210000000001</v>
+        <v>135.022</v>
       </c>
       <c r="AT6">
-        <v>178.096</v>
+        <v>214.675</v>
       </c>
       <c r="AU6">
-        <v>494.819</v>
+        <v>453.635</v>
       </c>
       <c r="AV6">
-        <v>336.458</v>
+        <v>334.155</v>
       </c>
       <c r="AW6">
-        <v>527.872</v>
+        <v>398.266</v>
       </c>
       <c r="AX6">
-        <v>408.098</v>
+        <v>417.148</v>
       </c>
       <c r="AY6">
-        <v>597.2239999999999</v>
+        <v>526.162</v>
       </c>
       <c r="AZ6">
-        <v>75.8738</v>
+        <v>142.02</v>
       </c>
       <c r="BA6">
-        <v>180.144</v>
+        <v>218.849</v>
       </c>
       <c r="BB6">
-        <v>492.954</v>
+        <v>449.333</v>
       </c>
       <c r="BC6">
-        <v>336.549</v>
+        <v>334.091</v>
       </c>
       <c r="BD6">
-        <v>521.35</v>
+        <v>384.141</v>
       </c>
       <c r="BE6">
-        <v>408.522</v>
+        <v>418.965</v>
       </c>
       <c r="BF6">
-        <v>518.1849999999999</v>
+        <v>470.447</v>
       </c>
       <c r="BG6">
-        <v>152.999</v>
+        <v>199.299</v>
       </c>
       <c r="BH6">
-        <v>226.036</v>
+        <v>253.528</v>
       </c>
       <c r="BI6">
-        <v>445.148</v>
+        <v>416.217</v>
       </c>
       <c r="BJ6">
-        <v>335.592</v>
+        <v>334.873</v>
       </c>
       <c r="BK6">
-        <v>365.187</v>
+        <v>271.148</v>
       </c>
       <c r="BL6">
-        <v>529.399</v>
+        <v>539.36</v>
       </c>
     </row>
     <row r="7" spans="1:64">
@@ -2008,139 +2015,139 @@
         <v>115</v>
       </c>
       <c r="T7">
-        <v>105.792</v>
+        <v>115.034</v>
       </c>
       <c r="U7">
-        <v>106.42</v>
+        <v>115.521</v>
       </c>
       <c r="V7">
-        <v>106.106</v>
+        <v>115.278</v>
       </c>
       <c r="W7">
-        <v>107.666</v>
+        <v>119.581</v>
       </c>
       <c r="X7">
-        <v>108.259</v>
+        <v>120.133</v>
       </c>
       <c r="Y7">
-        <v>107.963</v>
+        <v>119.857</v>
       </c>
       <c r="Z7">
-        <v>209.576</v>
+        <v>219.995</v>
       </c>
       <c r="AA7">
-        <v>210.094</v>
+        <v>220.22</v>
       </c>
       <c r="AB7" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AC7" s="3">
-        <v>34.9444</v>
+        <v>45.8556</v>
       </c>
       <c r="AD7" s="3">
-        <v>34.2736</v>
+        <v>44.8471</v>
       </c>
       <c r="AE7" s="3">
-        <v>36.4893</v>
+        <v>46.975</v>
       </c>
       <c r="AF7" s="3">
-        <v>35.767</v>
+        <v>45.8639</v>
       </c>
       <c r="AG7" s="3">
-        <v>34.0469</v>
+        <v>40.674</v>
       </c>
       <c r="AH7" s="3">
-        <v>32.9786</v>
-      </c>
-      <c r="AI7" s="4">
-        <v>12.0527</v>
-      </c>
-      <c r="AJ7" s="4">
-        <v>12.2886</v>
-      </c>
-      <c r="AK7" s="4">
-        <v>11.5316</v>
-      </c>
-      <c r="AL7" s="4">
-        <v>11.7645</v>
+        <v>40.0174</v>
+      </c>
+      <c r="AI7">
+        <v>7.53672</v>
+      </c>
+      <c r="AJ7">
+        <v>7.7062</v>
+      </c>
+      <c r="AK7">
+        <v>7.16354</v>
+      </c>
+      <c r="AL7">
+        <v>7.33709</v>
       </c>
       <c r="AM7">
-        <v>8.466799999999999</v>
+        <v>5.87974</v>
       </c>
       <c r="AN7">
-        <v>8.741059999999999</v>
+        <v>5.97621</v>
       </c>
       <c r="AO7">
-        <v>50.3257</v>
+        <v>50.1926</v>
       </c>
       <c r="AP7">
-        <v>50.3099</v>
+        <v>50.2284</v>
       </c>
       <c r="AQ7">
-        <v>50.2565</v>
+        <v>50.0564</v>
       </c>
       <c r="AR7">
-        <v>743.931</v>
+        <v>679.8779999999999</v>
       </c>
       <c r="AS7">
-        <v>41.9736</v>
+        <v>103.877</v>
       </c>
       <c r="AT7">
-        <v>182.365</v>
+        <v>219.077</v>
       </c>
       <c r="AU7">
-        <v>603.539</v>
+        <v>564.678</v>
       </c>
       <c r="AV7">
-        <v>392.952</v>
+        <v>391.877</v>
       </c>
       <c r="AW7">
-        <v>701.957</v>
+        <v>576.001</v>
       </c>
       <c r="AX7">
-        <v>328.562</v>
+        <v>340.093</v>
       </c>
       <c r="AY7">
-        <v>743.6239999999999</v>
+        <v>672.197</v>
       </c>
       <c r="AZ7">
-        <v>42.3227</v>
+        <v>111.351</v>
       </c>
       <c r="BA7">
-        <v>182.583</v>
+        <v>223.52</v>
       </c>
       <c r="BB7">
-        <v>603.364</v>
+        <v>560.0279999999999</v>
       </c>
       <c r="BC7">
-        <v>392.973</v>
+        <v>391.774</v>
       </c>
       <c r="BD7">
-        <v>701.3009999999999</v>
+        <v>560.8459999999999</v>
       </c>
       <c r="BE7">
-        <v>329.052</v>
+        <v>342.611</v>
       </c>
       <c r="BF7">
-        <v>631.749</v>
+        <v>590.318</v>
       </c>
       <c r="BG7">
-        <v>151.302</v>
+        <v>191.731</v>
       </c>
       <c r="BH7">
-        <v>247.392</v>
+        <v>271.448</v>
       </c>
       <c r="BI7">
-        <v>535.66</v>
+        <v>510.6009999999999</v>
       </c>
       <c r="BJ7">
-        <v>391.526</v>
+        <v>391.025</v>
       </c>
       <c r="BK7">
-        <v>480.447</v>
+        <v>398.587</v>
       </c>
       <c r="BL7">
-        <v>453.1130000000001</v>
+        <v>464.466</v>
       </c>
     </row>
     <row r="8" spans="1:64">
@@ -2202,139 +2209,139 @@
         <v>117</v>
       </c>
       <c r="T8">
-        <v>102.104</v>
+        <v>111.629</v>
       </c>
       <c r="U8">
-        <v>102.848</v>
+        <v>111.972</v>
       </c>
       <c r="V8">
-        <v>102.476</v>
+        <v>111.8</v>
       </c>
       <c r="W8">
-        <v>103.801</v>
+        <v>116.154</v>
       </c>
       <c r="X8">
-        <v>104.446</v>
+        <v>116.538</v>
       </c>
       <c r="Y8">
-        <v>104.123</v>
+        <v>116.346</v>
       </c>
       <c r="Z8">
-        <v>205.916</v>
+        <v>216.528</v>
       </c>
       <c r="AA8">
-        <v>206.546</v>
+        <v>216.813</v>
       </c>
       <c r="AB8" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AC8" s="3">
-        <v>33.4093</v>
+        <v>44.7644</v>
       </c>
       <c r="AD8" s="3">
-        <v>32.2636</v>
+        <v>42.9177</v>
       </c>
       <c r="AE8" s="3">
-        <v>35.1582</v>
+        <v>45.8789</v>
       </c>
       <c r="AF8" s="3">
-        <v>33.9585</v>
+        <v>43.8535</v>
       </c>
       <c r="AG8" s="3">
-        <v>33.3612</v>
+        <v>40.1265</v>
       </c>
       <c r="AH8" s="3">
-        <v>31.771</v>
-      </c>
-      <c r="AI8" s="4">
-        <v>13.1711</v>
-      </c>
-      <c r="AJ8" s="4">
-        <v>13.6388</v>
-      </c>
-      <c r="AK8" s="4">
-        <v>12.5346</v>
-      </c>
-      <c r="AL8" s="4">
-        <v>12.9775</v>
+        <v>39.0322</v>
+      </c>
+      <c r="AI8">
+        <v>8.22284</v>
+      </c>
+      <c r="AJ8">
+        <v>8.576650000000001</v>
+      </c>
+      <c r="AK8">
+        <v>7.81494</v>
+      </c>
+      <c r="AL8">
+        <v>8.17587</v>
       </c>
       <c r="AM8">
-        <v>9.112080000000001</v>
+        <v>6.36929</v>
       </c>
       <c r="AN8">
-        <v>9.568160000000001</v>
+        <v>6.54785</v>
       </c>
       <c r="AO8">
-        <v>50.3848</v>
+        <v>50.1337</v>
       </c>
       <c r="AP8">
-        <v>50.3367</v>
+        <v>50.1523</v>
       </c>
       <c r="AQ8">
-        <v>50.3096</v>
+        <v>50.1065</v>
       </c>
       <c r="AR8">
-        <v>759.77</v>
+        <v>698.35</v>
       </c>
       <c r="AS8">
-        <v>26.373</v>
+        <v>84.8672</v>
       </c>
       <c r="AT8">
-        <v>173.052</v>
+        <v>207.564</v>
       </c>
       <c r="AU8">
-        <v>613.091</v>
+        <v>575.654</v>
       </c>
       <c r="AV8">
-        <v>393.0719999999999</v>
+        <v>391.609</v>
       </c>
       <c r="AW8">
-        <v>733.3969999999999</v>
+        <v>613.4829999999999</v>
       </c>
       <c r="AX8">
-        <v>325.349</v>
+        <v>337.127</v>
       </c>
       <c r="AY8">
-        <v>760.4229999999999</v>
+        <v>690.365</v>
       </c>
       <c r="AZ8">
-        <v>25.931</v>
+        <v>92.79759999999999</v>
       </c>
       <c r="BA8">
-        <v>172.829</v>
+        <v>212.311</v>
       </c>
       <c r="BB8">
-        <v>613.525</v>
+        <v>570.852</v>
       </c>
       <c r="BC8">
-        <v>393.177</v>
+        <v>391.582</v>
       </c>
       <c r="BD8">
-        <v>734.4929999999999</v>
+        <v>597.568</v>
       </c>
       <c r="BE8">
-        <v>325.752</v>
+        <v>339.769</v>
       </c>
       <c r="BF8">
-        <v>645.081</v>
+        <v>603.1809999999999</v>
       </c>
       <c r="BG8">
-        <v>138.431</v>
+        <v>177.22</v>
       </c>
       <c r="BH8">
-        <v>239.761</v>
+        <v>262.412</v>
       </c>
       <c r="BI8">
-        <v>543.751</v>
+        <v>517.989</v>
       </c>
       <c r="BJ8">
-        <v>391.756</v>
+        <v>390.201</v>
       </c>
       <c r="BK8">
-        <v>506.65</v>
+        <v>425.962</v>
       </c>
       <c r="BL8">
-        <v>450.89</v>
+        <v>462.037</v>
       </c>
     </row>
     <row r="9" spans="1:64">
@@ -2396,139 +2403,139 @@
         <v>78</v>
       </c>
       <c r="T9">
-        <v>121.322</v>
+        <v>130.516</v>
       </c>
       <c r="U9">
-        <v>122.053</v>
+        <v>131.143</v>
       </c>
       <c r="V9">
-        <v>121.688</v>
+        <v>130.83</v>
       </c>
       <c r="W9">
-        <v>123.428</v>
+        <v>135.03</v>
       </c>
       <c r="X9">
-        <v>124.129</v>
+        <v>135.751</v>
       </c>
       <c r="Y9">
-        <v>123.778</v>
+        <v>135.391</v>
       </c>
       <c r="Z9">
-        <v>224.86</v>
+        <v>235.356</v>
       </c>
       <c r="AA9">
-        <v>225.528</v>
+        <v>235.626</v>
       </c>
       <c r="AB9" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AC9" s="3">
-        <v>36.6212</v>
+        <v>47.6784</v>
       </c>
       <c r="AD9" s="3">
-        <v>35.89060000000001</v>
+        <v>46.5546</v>
       </c>
       <c r="AE9" s="3">
-        <v>38.0742</v>
+        <v>48.7766</v>
       </c>
       <c r="AF9" s="3">
-        <v>37.2473</v>
+        <v>47.5765</v>
       </c>
       <c r="AG9" s="3">
-        <v>35.3394</v>
+        <v>41.5326</v>
       </c>
       <c r="AH9" s="3">
-        <v>34.3258</v>
+        <v>40.8721</v>
       </c>
       <c r="AI9">
-        <v>9.55059</v>
+        <v>5.91509</v>
       </c>
       <c r="AJ9">
-        <v>9.744999999999999</v>
+        <v>6.05787</v>
       </c>
       <c r="AK9">
-        <v>9.15263</v>
+        <v>5.61798</v>
       </c>
       <c r="AL9">
-        <v>9.355829999999999</v>
+        <v>5.7597</v>
       </c>
       <c r="AM9">
-        <v>6.79653</v>
+        <v>4.67596</v>
       </c>
       <c r="AN9">
-        <v>6.99723</v>
+        <v>4.75152</v>
       </c>
       <c r="AO9">
-        <v>50.3843</v>
+        <v>50.2602</v>
       </c>
       <c r="AP9">
-        <v>50.3722</v>
+        <v>50.3166</v>
       </c>
       <c r="AQ9">
-        <v>50.3382</v>
+        <v>50.0705</v>
       </c>
       <c r="AR9">
-        <v>628.17</v>
+        <v>570.812</v>
       </c>
       <c r="AS9">
-        <v>45.2475</v>
+        <v>100.775</v>
       </c>
       <c r="AT9">
-        <v>161.832</v>
+        <v>194.783</v>
       </c>
       <c r="AU9">
-        <v>511.586</v>
+        <v>476.8049999999999</v>
       </c>
       <c r="AV9">
-        <v>336.7089999999999</v>
+        <v>335.794</v>
       </c>
       <c r="AW9">
-        <v>582.923</v>
+        <v>470.037</v>
       </c>
       <c r="AX9">
-        <v>343.079</v>
+        <v>354.373</v>
       </c>
       <c r="AY9">
-        <v>627.14</v>
+        <v>564.021</v>
       </c>
       <c r="AZ9">
-        <v>46.3413</v>
+        <v>107.311</v>
       </c>
       <c r="BA9">
-        <v>162.501</v>
+        <v>198.653</v>
       </c>
       <c r="BB9">
-        <v>510.98</v>
+        <v>472.679</v>
       </c>
       <c r="BC9">
-        <v>336.741</v>
+        <v>335.666</v>
       </c>
       <c r="BD9">
-        <v>580.799</v>
+        <v>456.71</v>
       </c>
       <c r="BE9">
-        <v>343.595</v>
+        <v>356.727</v>
       </c>
       <c r="BF9">
-        <v>535.5529999999999</v>
+        <v>497.068</v>
       </c>
       <c r="BG9">
-        <v>135.244</v>
+        <v>173.393</v>
       </c>
       <c r="BH9">
-        <v>215.306</v>
+        <v>238.128</v>
       </c>
       <c r="BI9">
-        <v>455.491</v>
+        <v>432.333</v>
       </c>
       <c r="BJ9">
-        <v>335.398</v>
+        <v>335.23</v>
       </c>
       <c r="BK9">
-        <v>400.309</v>
+        <v>323.675</v>
       </c>
       <c r="BL9">
-        <v>466.97</v>
+        <v>478.229</v>
       </c>
     </row>
     <row r="10" spans="1:64">
@@ -2590,139 +2597,139 @@
         <v>115</v>
       </c>
       <c r="T10">
-        <v>121.87</v>
+        <v>131.582</v>
       </c>
       <c r="U10">
-        <v>122.793</v>
+        <v>132.096</v>
       </c>
       <c r="V10">
-        <v>122.332</v>
+        <v>131.839</v>
       </c>
       <c r="W10">
-        <v>123.863</v>
+        <v>136.08</v>
       </c>
       <c r="X10">
-        <v>124.672</v>
+        <v>136.682</v>
       </c>
       <c r="Y10">
-        <v>124.268</v>
+        <v>136.381</v>
       </c>
       <c r="Z10">
-        <v>225.359</v>
+        <v>236.302</v>
       </c>
       <c r="AA10">
-        <v>226.358</v>
+        <v>236.679</v>
       </c>
       <c r="AB10" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AC10" s="3">
-        <v>35.5174</v>
+        <v>47.4014</v>
       </c>
       <c r="AD10" s="3">
-        <v>34.0261</v>
+        <v>44.9949</v>
       </c>
       <c r="AE10" s="3">
-        <v>37.0987</v>
+        <v>48.4882</v>
       </c>
       <c r="AF10" s="3">
-        <v>35.4606</v>
+        <v>45.8987</v>
       </c>
       <c r="AG10" s="3">
-        <v>34.5387</v>
+        <v>41.3585</v>
       </c>
       <c r="AH10" s="3">
-        <v>32.89409999999999</v>
-      </c>
-      <c r="AI10" s="4">
-        <v>10.289</v>
-      </c>
-      <c r="AJ10" s="4">
-        <v>10.74</v>
+        <v>40.104</v>
+      </c>
+      <c r="AI10">
+        <v>6.33305</v>
+      </c>
+      <c r="AJ10">
+        <v>6.67177</v>
       </c>
       <c r="AK10">
-        <v>9.830909999999999</v>
-      </c>
-      <c r="AL10" s="4">
-        <v>10.285</v>
+        <v>6.01414</v>
+      </c>
+      <c r="AL10">
+        <v>6.35345</v>
       </c>
       <c r="AM10">
-        <v>7.25609</v>
+        <v>5.00612</v>
       </c>
       <c r="AN10">
-        <v>7.61887</v>
+        <v>5.16272</v>
       </c>
       <c r="AO10">
-        <v>50.4793</v>
+        <v>50.2124</v>
       </c>
       <c r="AP10">
-        <v>50.4233</v>
+        <v>50.2646</v>
       </c>
       <c r="AQ10">
-        <v>50.5013</v>
+        <v>50.1323</v>
       </c>
       <c r="AR10">
-        <v>641.343</v>
+        <v>585.5120000000001</v>
       </c>
       <c r="AS10">
-        <v>32.2786</v>
+        <v>85.1865</v>
       </c>
       <c r="AT10">
-        <v>154.092</v>
+        <v>185.252</v>
       </c>
       <c r="AU10">
-        <v>519.5300000000001</v>
+        <v>485.447</v>
       </c>
       <c r="AV10">
-        <v>336.811</v>
+        <v>335.349</v>
       </c>
       <c r="AW10">
-        <v>609.0649999999999</v>
+        <v>500.326</v>
       </c>
       <c r="AX10">
-        <v>343.976</v>
+        <v>355.711</v>
       </c>
       <c r="AY10">
-        <v>640.828</v>
+        <v>578.2909999999999</v>
       </c>
       <c r="AZ10">
-        <v>32.9713</v>
+        <v>92.26629999999999</v>
       </c>
       <c r="BA10">
-        <v>154.543</v>
+        <v>189.471</v>
       </c>
       <c r="BB10">
-        <v>519.2569999999999</v>
+        <v>481.086</v>
       </c>
       <c r="BC10">
-        <v>336.9</v>
+        <v>335.279</v>
       </c>
       <c r="BD10">
-        <v>607.857</v>
+        <v>486.025</v>
       </c>
       <c r="BE10">
-        <v>344.409</v>
+        <v>358.169</v>
       </c>
       <c r="BF10">
-        <v>543.9150000000001</v>
+        <v>506.8439999999999</v>
       </c>
       <c r="BG10">
-        <v>126.222</v>
+        <v>161.768</v>
       </c>
       <c r="BH10">
-        <v>209.761</v>
+        <v>230.783</v>
       </c>
       <c r="BI10">
-        <v>460.377</v>
+        <v>437.829</v>
       </c>
       <c r="BJ10">
-        <v>335.069</v>
+        <v>334.306</v>
       </c>
       <c r="BK10">
-        <v>417.693</v>
+        <v>345.076</v>
       </c>
       <c r="BL10">
-        <v>468.52</v>
+        <v>479.882</v>
       </c>
     </row>
     <row r="11" spans="1:64" s="1" customFormat="1">
@@ -2924,139 +2931,139 @@
         <v>120</v>
       </c>
       <c r="T12" s="1">
-        <v>102.104</v>
+        <v>111.629</v>
       </c>
       <c r="U12" s="1">
-        <v>102.848</v>
+        <v>111.972</v>
       </c>
       <c r="V12" s="1">
-        <v>102.476</v>
+        <v>111.8</v>
       </c>
       <c r="W12" s="1">
-        <v>103.801</v>
+        <v>116.154</v>
       </c>
       <c r="X12" s="1">
-        <v>104.446</v>
+        <v>116.538</v>
       </c>
       <c r="Y12" s="1">
-        <v>104.123</v>
+        <v>116.346</v>
       </c>
       <c r="Z12" s="1">
-        <v>205.916</v>
+        <v>216.528</v>
       </c>
       <c r="AA12" s="1">
-        <v>206.546</v>
+        <v>216.813</v>
       </c>
       <c r="AB12" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AC12" s="3">
-        <v>33.4093</v>
+        <v>44.7644</v>
       </c>
       <c r="AD12" s="3">
-        <v>32.2636</v>
+        <v>42.9177</v>
       </c>
       <c r="AE12" s="3">
-        <v>35.1582</v>
+        <v>45.8789</v>
       </c>
       <c r="AF12" s="3">
-        <v>33.9585</v>
+        <v>43.8535</v>
       </c>
       <c r="AG12" s="3">
-        <v>33.3612</v>
+        <v>40.1265</v>
       </c>
       <c r="AH12" s="3">
-        <v>31.771</v>
+        <v>39.0322</v>
       </c>
       <c r="AI12" s="1">
-        <v>6.93013</v>
+        <v>4.30401</v>
       </c>
       <c r="AJ12" s="1">
-        <v>7.26935</v>
+        <v>4.49561</v>
       </c>
       <c r="AK12" s="1">
-        <v>6.58169</v>
+        <v>4.08718</v>
       </c>
       <c r="AL12" s="1">
-        <v>6.95304</v>
-      </c>
-      <c r="AM12" s="1">
-        <v>5.2798</v>
-      </c>
-      <c r="AN12" s="1">
-        <v>5.47679</v>
+        <v>4.2652</v>
+      </c>
+      <c r="AM12" s="5">
+        <v>3.52017</v>
+      </c>
+      <c r="AN12" s="5">
+        <v>3.62686</v>
       </c>
       <c r="AO12" s="1">
-        <v>50.3257</v>
+        <v>50.1337</v>
       </c>
       <c r="AP12" s="1">
-        <v>50.3099</v>
+        <v>50.1523</v>
       </c>
       <c r="AQ12" s="1">
-        <v>50.2565</v>
+        <v>50.0564</v>
       </c>
       <c r="AR12" s="1">
-        <v>590.121</v>
+        <v>525.563</v>
       </c>
       <c r="AS12" s="1">
-        <v>26.373</v>
+        <v>84.8672</v>
       </c>
       <c r="AT12" s="1">
-        <v>154.092</v>
+        <v>185.252</v>
       </c>
       <c r="AU12" s="1">
-        <v>488.6</v>
+        <v>449.253</v>
       </c>
       <c r="AV12" s="1">
-        <v>336.317</v>
+        <v>334.155</v>
       </c>
       <c r="AW12" s="1">
-        <v>507.607</v>
+        <v>381.5529999999999</v>
       </c>
       <c r="AX12" s="1">
-        <v>325.349</v>
+        <v>337.127</v>
       </c>
       <c r="AY12" s="1">
-        <v>587.048</v>
+        <v>518.7819999999999</v>
       </c>
       <c r="AZ12" s="1">
-        <v>25.931</v>
+        <v>92.26629999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>154.543</v>
+        <v>189.471</v>
       </c>
       <c r="BB12" s="1">
-        <v>486.776</v>
+        <v>445.135</v>
       </c>
       <c r="BC12" s="1">
-        <v>336.368</v>
+        <v>334.091</v>
       </c>
       <c r="BD12" s="1">
-        <v>501.36</v>
+        <v>368.238</v>
       </c>
       <c r="BE12" s="1">
-        <v>325.752</v>
+        <v>339.769</v>
       </c>
       <c r="BF12" s="1">
-        <v>510.706</v>
+        <v>465.354</v>
       </c>
       <c r="BG12" s="1">
-        <v>126.222</v>
+        <v>161.768</v>
       </c>
       <c r="BH12" s="1">
-        <v>209.761</v>
+        <v>230.783</v>
       </c>
       <c r="BI12" s="1">
-        <v>440.642</v>
+        <v>413.422</v>
       </c>
       <c r="BJ12" s="1">
-        <v>335.069</v>
+        <v>334.306</v>
       </c>
       <c r="BK12" s="1">
-        <v>350.322</v>
+        <v>259.659</v>
       </c>
       <c r="BL12" s="1">
-        <v>450.89</v>
+        <v>462.037</v>
       </c>
     </row>
     <row r="13" spans="1:64" s="1" customFormat="1">
@@ -3064,139 +3071,139 @@
         <v>121</v>
       </c>
       <c r="T13" s="1">
-        <v>190.082</v>
+        <v>197.538</v>
       </c>
       <c r="U13" s="1">
-        <v>192.192</v>
+        <v>199.774</v>
       </c>
       <c r="V13" s="1">
-        <v>191.137</v>
+        <v>198.656</v>
       </c>
       <c r="W13" s="1">
-        <v>192.419</v>
+        <v>201.794</v>
       </c>
       <c r="X13" s="1">
-        <v>194.561</v>
+        <v>204.164</v>
       </c>
       <c r="Y13" s="1">
-        <v>193.49</v>
+        <v>202.979</v>
       </c>
       <c r="Z13" s="1">
-        <v>292.388</v>
+        <v>302.326</v>
       </c>
       <c r="AA13" s="1">
-        <v>294.391</v>
+        <v>303.348</v>
       </c>
       <c r="AB13" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AC13" s="3">
-        <v>44.4136</v>
-      </c>
-      <c r="AD13" s="3">
-        <v>41.897</v>
-      </c>
-      <c r="AE13" s="3">
-        <v>46.2995</v>
-      </c>
-      <c r="AF13" s="3">
-        <v>43.2639</v>
+      <c r="AC13" s="4">
+        <v>54.4093</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>50.9235</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>55.22770000000001</v>
+      </c>
+      <c r="AF13" s="4">
+        <v>51.8012</v>
       </c>
       <c r="AG13" s="3">
-        <v>40.1289</v>
+        <v>44.84460000000001</v>
       </c>
       <c r="AH13" s="3">
-        <v>38.3789</v>
-      </c>
-      <c r="AI13" s="4">
-        <v>13.1711</v>
-      </c>
-      <c r="AJ13" s="4">
-        <v>13.6388</v>
-      </c>
-      <c r="AK13" s="4">
-        <v>12.5346</v>
-      </c>
-      <c r="AL13" s="4">
-        <v>12.9775</v>
+        <v>42.956</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>8.22284</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>8.576650000000001</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>7.81494</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>8.17587</v>
       </c>
       <c r="AM13" s="1">
-        <v>9.112080000000001</v>
+        <v>6.36929</v>
       </c>
       <c r="AN13" s="1">
-        <v>9.568160000000001</v>
+        <v>6.54785</v>
       </c>
       <c r="AO13" s="1">
-        <v>51.0165</v>
+        <v>50.9047</v>
       </c>
       <c r="AP13" s="1">
-        <v>51.0364</v>
+        <v>51.0007</v>
       </c>
       <c r="AQ13" s="1">
-        <v>50.9501</v>
+        <v>50.2547</v>
       </c>
       <c r="AR13" s="1">
-        <v>759.77</v>
+        <v>698.35</v>
       </c>
       <c r="AS13" s="1">
-        <v>82.514</v>
+        <v>144.01</v>
       </c>
       <c r="AT13" s="1">
-        <v>202.073</v>
+        <v>242.269</v>
       </c>
       <c r="AU13" s="1">
-        <v>613.091</v>
+        <v>575.654</v>
       </c>
       <c r="AV13" s="1">
-        <v>393.0719999999999</v>
+        <v>391.877</v>
       </c>
       <c r="AW13" s="1">
-        <v>733.3969999999999</v>
+        <v>613.4829999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>408.098</v>
+        <v>417.148</v>
       </c>
       <c r="AY13" s="1">
-        <v>760.4229999999999</v>
+        <v>690.365</v>
       </c>
       <c r="AZ13" s="1">
-        <v>85.6878</v>
+        <v>151.527</v>
       </c>
       <c r="BA13" s="1">
-        <v>203.728</v>
+        <v>247.004</v>
       </c>
       <c r="BB13" s="1">
-        <v>613.525</v>
+        <v>570.852</v>
       </c>
       <c r="BC13" s="1">
-        <v>393.177</v>
+        <v>391.774</v>
       </c>
       <c r="BD13" s="1">
-        <v>734.4929999999999</v>
+        <v>597.568</v>
       </c>
       <c r="BE13" s="1">
-        <v>408.522</v>
+        <v>418.965</v>
       </c>
       <c r="BF13" s="1">
-        <v>645.081</v>
+        <v>603.1809999999999</v>
       </c>
       <c r="BG13" s="1">
-        <v>172.83</v>
+        <v>221.929</v>
       </c>
       <c r="BH13" s="1">
-        <v>259.959</v>
+        <v>289.173</v>
       </c>
       <c r="BI13" s="1">
-        <v>543.751</v>
+        <v>517.989</v>
       </c>
       <c r="BJ13" s="1">
-        <v>391.756</v>
+        <v>391.025</v>
       </c>
       <c r="BK13" s="1">
-        <v>506.65</v>
+        <v>425.962</v>
       </c>
       <c r="BL13" s="1">
-        <v>529.399</v>
+        <v>539.36</v>
       </c>
     </row>
     <row r="14" spans="1:64" s="1" customFormat="1">
@@ -3458,139 +3465,139 @@
         <v>126</v>
       </c>
       <c r="T18" s="1">
-        <v>137.7424444444444</v>
+        <v>146.4457777777778</v>
       </c>
       <c r="U18" s="1">
-        <v>138.828</v>
+        <v>147.3915555555556</v>
       </c>
       <c r="V18" s="1">
-        <v>138.2851111111111</v>
+        <v>146.9187777777778</v>
       </c>
       <c r="W18" s="1">
-        <v>139.8884444444444</v>
+        <v>150.8821111111111</v>
       </c>
       <c r="X18" s="1">
-        <v>140.9321111111111</v>
+        <v>151.9318888888889</v>
       </c>
       <c r="Y18" s="1">
-        <v>140.4102222222222</v>
+        <v>151.4071111111111</v>
       </c>
       <c r="Z18" s="1">
-        <v>240.9182222222222</v>
+        <v>251.2356666666667</v>
       </c>
       <c r="AA18" s="1">
-        <v>241.9537777777778</v>
+        <v>251.6794444444444</v>
       </c>
       <c r="AB18" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AC18" s="1">
-        <v>38.61924444444445</v>
+        <v>49.4434</v>
       </c>
       <c r="AD18" s="1">
-        <v>36.89031111111111</v>
+        <v>47.13897777777778</v>
       </c>
       <c r="AE18" s="1">
-        <v>40.2481</v>
+        <v>50.45827777777778</v>
       </c>
       <c r="AF18" s="1">
-        <v>38.26478888888889</v>
+        <v>48.05776666666667</v>
       </c>
       <c r="AG18" s="1">
-        <v>36.54507777777778</v>
+        <v>42.34312222222223</v>
       </c>
       <c r="AH18" s="1">
-        <v>34.98618888888889</v>
+        <v>41.11726666666667</v>
       </c>
       <c r="AI18" s="1">
-        <v>9.846033333333333</v>
+        <v>6.106081111111111</v>
       </c>
       <c r="AJ18" s="1">
-        <v>10.27322555555556</v>
+        <v>6.390913333333334</v>
       </c>
       <c r="AK18" s="1">
-        <v>9.396240000000001</v>
+        <v>5.799132222222222</v>
       </c>
       <c r="AL18" s="1">
-        <v>9.842266666666667</v>
+        <v>6.077792222222222</v>
       </c>
       <c r="AM18" s="1">
-        <v>7.100437777777778</v>
+        <v>4.867604444444444</v>
       </c>
       <c r="AN18" s="1">
-        <v>7.414666666666666</v>
+        <v>5.007563333333334</v>
       </c>
       <c r="AO18" s="1">
-        <v>50.55346666666667</v>
+        <v>50.39056666666666</v>
       </c>
       <c r="AP18" s="1">
-        <v>50.53373333333334</v>
+        <v>50.45561111111111</v>
       </c>
       <c r="AQ18" s="1">
-        <v>50.51903333333333</v>
+        <v>50.1279</v>
       </c>
       <c r="AR18" s="1">
-        <v>677.0684444444445</v>
+        <v>612.7588888888889</v>
       </c>
       <c r="AS18" s="1">
-        <v>54.21302222222222</v>
+        <v>115.3127444444444</v>
       </c>
       <c r="AT18" s="1">
-        <v>178.784</v>
+        <v>214.8022222222222</v>
       </c>
       <c r="AU18" s="1">
-        <v>552.4973333333332</v>
+        <v>513.2698888888889</v>
       </c>
       <c r="AV18" s="1">
-        <v>365.6407777777778</v>
+        <v>364.036</v>
       </c>
       <c r="AW18" s="1">
-        <v>622.8555555555554</v>
+        <v>497.4461111111111</v>
       </c>
       <c r="AX18" s="1">
-        <v>358.59</v>
+        <v>369.2554444444444</v>
       </c>
       <c r="AY18" s="1">
-        <v>675.549111111111</v>
+        <v>605.151111111111</v>
       </c>
       <c r="AZ18" s="1">
-        <v>55.88348888888888</v>
+        <v>122.7399888888889</v>
       </c>
       <c r="BA18" s="1">
-        <v>179.8166666666667</v>
+        <v>219.2221111111111</v>
       </c>
       <c r="BB18" s="1">
-        <v>551.616111111111</v>
+        <v>508.6688888888888</v>
       </c>
       <c r="BC18" s="1">
-        <v>365.7164444444445</v>
+        <v>363.9456666666667</v>
       </c>
       <c r="BD18" s="1">
-        <v>619.6656666666665</v>
+        <v>482.4112222222222</v>
       </c>
       <c r="BE18" s="1">
-        <v>359.0737777777778</v>
+        <v>371.477</v>
       </c>
       <c r="BF18" s="1">
-        <v>578.4862222222223</v>
+        <v>534.3273333333333</v>
       </c>
       <c r="BG18" s="1">
-        <v>150.0481111111111</v>
+        <v>192.8043333333333</v>
       </c>
       <c r="BH18" s="1">
-        <v>235.7358888888889</v>
+        <v>261.1086666666667</v>
       </c>
       <c r="BI18" s="1">
-        <v>492.7987777777778</v>
+        <v>466.0226666666667</v>
       </c>
       <c r="BJ18" s="1">
-        <v>364.2672222222222</v>
+        <v>363.5657777777778</v>
       </c>
       <c r="BK18" s="1">
-        <v>428.4382222222223</v>
+        <v>341.5231111111112</v>
       </c>
       <c r="BL18" s="1">
-        <v>481.9499999999999</v>
+        <v>492.811</v>
       </c>
     </row>
     <row r="19" spans="19:64" s="1" customFormat="1">
@@ -3598,139 +3605,139 @@
         <v>127</v>
       </c>
       <c r="T19" s="1">
-        <v>28.66942834802378</v>
+        <v>27.86826498118834</v>
       </c>
       <c r="U19" s="1">
-        <v>29.10495161384819</v>
+        <v>28.47482300446839</v>
       </c>
       <c r="V19" s="1">
-        <v>28.88694793864309</v>
+        <v>28.17137489950384</v>
       </c>
       <c r="W19" s="1">
-        <v>28.86022612181806</v>
+        <v>27.77152867974459</v>
       </c>
       <c r="X19" s="1">
-        <v>29.33370345389391</v>
+        <v>28.40478099602422</v>
       </c>
       <c r="Y19" s="1">
-        <v>29.09681032071223</v>
+        <v>28.08810412669568</v>
       </c>
       <c r="Z19" s="1">
-        <v>28.1589235699322</v>
+        <v>27.83767252802895</v>
       </c>
       <c r="AA19" s="1">
-        <v>28.56421652183328</v>
+        <v>28.06002860975459</v>
       </c>
       <c r="AB19" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AC19" s="1">
-        <v>3.703576100387032</v>
+        <v>3.110897957182138</v>
       </c>
       <c r="AD19" s="1">
-        <v>3.034047787085924</v>
+        <v>2.483156894303781</v>
       </c>
       <c r="AE19" s="1">
-        <v>3.772595019641284</v>
+        <v>3.012562349664699</v>
       </c>
       <c r="AF19" s="1">
-        <v>2.930525776278397</v>
+        <v>2.446725023827202</v>
       </c>
       <c r="AG19" s="1">
-        <v>2.323964933651002</v>
+        <v>1.505408989667872</v>
       </c>
       <c r="AH19" s="1">
-        <v>2.147903615903163</v>
+        <v>1.214546564680736</v>
       </c>
       <c r="AI19" s="1">
-        <v>1.901181615440484</v>
+        <v>1.19946874840901</v>
       </c>
       <c r="AJ19" s="1">
-        <v>1.876521973877981</v>
+        <v>1.207602039921357</v>
       </c>
       <c r="AK19" s="1">
-        <v>1.824803689453867</v>
+        <v>1.140776420423854</v>
       </c>
       <c r="AL19" s="1">
-        <v>1.779886524329259</v>
+        <v>1.156780280200924</v>
       </c>
       <c r="AM19" s="1">
-        <v>1.163691106950234</v>
+        <v>0.8674261888049563</v>
       </c>
       <c r="AN19" s="1">
-        <v>1.210575793514989</v>
+        <v>0.8714605215384114</v>
       </c>
       <c r="AO19" s="1">
-        <v>0.2144025652831613</v>
+        <v>0.2597467570110891</v>
       </c>
       <c r="AP19" s="1">
-        <v>0.2321985118145443</v>
+        <v>0.2798169538364703</v>
       </c>
       <c r="AQ19" s="1">
-        <v>0.2076208991835299</v>
+        <v>0.0589516562767986</v>
       </c>
       <c r="AR19" s="1">
-        <v>59.66414617602083</v>
+        <v>58.508310607116</v>
       </c>
       <c r="AS19" s="1">
-        <v>18.63606849238432</v>
+        <v>21.96583218268829</v>
       </c>
       <c r="AT19" s="1">
-        <v>13.86926108742319</v>
+        <v>16.5043965238746</v>
       </c>
       <c r="AU19" s="1">
-        <v>46.04197158149412</v>
+        <v>45.1312334997602</v>
       </c>
       <c r="AV19" s="1">
-        <v>26.59990317767583</v>
+        <v>26.56318094656587</v>
       </c>
       <c r="AW19" s="1">
-        <v>70.59751952852342</v>
+        <v>70.63306543829084</v>
       </c>
       <c r="AX19" s="1">
-        <v>26.89124237450633</v>
+        <v>25.86805644080534</v>
       </c>
       <c r="AY19" s="1">
-        <v>60.4123032749758</v>
+        <v>58.02044640267286</v>
       </c>
       <c r="AZ19" s="1">
-        <v>19.84735085711522</v>
+        <v>21.97851655455312</v>
       </c>
       <c r="BA19" s="1">
-        <v>14.29046694672904</v>
+        <v>16.72346102166683</v>
       </c>
       <c r="BB19" s="1">
-        <v>46.45069617572893</v>
+        <v>44.82939122308151</v>
       </c>
       <c r="BC19" s="1">
-        <v>26.60751125407641</v>
+        <v>26.56859761698636</v>
       </c>
       <c r="BD19" s="1">
-        <v>72.49341542819209</v>
+        <v>69.82321138700983</v>
       </c>
       <c r="BE19" s="1">
-        <v>26.88973043862154</v>
+        <v>25.58908829082341</v>
       </c>
       <c r="BF19" s="1">
-        <v>48.67545072502107</v>
+        <v>48.10338906517455</v>
       </c>
       <c r="BG19" s="1">
-        <v>13.77945407275665</v>
+        <v>18.10439737252312</v>
       </c>
       <c r="BH19" s="1">
-        <v>15.94395806459087</v>
+        <v>17.84609144882991</v>
       </c>
       <c r="BI19" s="1">
-        <v>39.52040188104755</v>
+        <v>38.86122946817017</v>
       </c>
       <c r="BJ19" s="1">
-        <v>26.43952586470902</v>
+        <v>26.18554833736341</v>
       </c>
       <c r="BK19" s="1">
-        <v>48.18860106516151</v>
+        <v>50.40570408295837</v>
       </c>
       <c r="BL19" s="1">
-        <v>25.54015890492635</v>
+        <v>25.0567169437658</v>
       </c>
     </row>
     <row r="20" spans="19:64" s="1" customFormat="1">
@@ -3738,139 +3745,139 @@
         <v>128</v>
       </c>
       <c r="T20" s="1">
-        <v>20.81379379003761</v>
+        <v>19.02974971629203</v>
       </c>
       <c r="U20" s="1">
-        <v>20.96475611104978</v>
+        <v>19.31916852165627</v>
       </c>
       <c r="V20" s="1">
-        <v>20.88941297189444</v>
+        <v>19.17479530228226</v>
       </c>
       <c r="W20" s="1">
-        <v>20.63088644414776</v>
+        <v>18.40611088699134</v>
       </c>
       <c r="X20" s="1">
-        <v>20.81406659037923</v>
+        <v>18.69573346566978</v>
       </c>
       <c r="Y20" s="1">
-        <v>20.72271509880652</v>
+        <v>18.55137709224439</v>
       </c>
       <c r="Z20" s="1">
-        <v>11.68816676056928</v>
+        <v>11.0803027680633</v>
       </c>
       <c r="AA20" s="1">
-        <v>11.80565014697479</v>
+        <v>11.1491141724721</v>
       </c>
       <c r="AB20" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AC20" s="1">
-        <v>9.589975551476146</v>
+        <v>6.291836639838963</v>
       </c>
       <c r="AD20" s="1">
-        <v>8.224511248895618</v>
+        <v>5.267735982756903</v>
       </c>
       <c r="AE20" s="1">
-        <v>9.373349349761314</v>
+        <v>5.970402642223066</v>
       </c>
       <c r="AF20" s="1">
-        <v>7.658544216166697</v>
+        <v>5.091216661810201</v>
       </c>
       <c r="AG20" s="1">
-        <v>6.359173587705842</v>
+        <v>3.555262131515219</v>
       </c>
       <c r="AH20" s="1">
-        <v>6.139290057355478</v>
+        <v>2.953860173943313</v>
       </c>
       <c r="AI20" s="1">
-        <v>19.30911211730427</v>
+        <v>19.64383909388889</v>
       </c>
       <c r="AJ20" s="1">
-        <v>18.26614205762468</v>
+        <v>18.89560970296406</v>
       </c>
       <c r="AK20" s="1">
-        <v>19.42057343633056</v>
+        <v>19.67150216117524</v>
       </c>
       <c r="AL20" s="1">
-        <v>18.08411196942363</v>
+        <v>19.03290270390274</v>
       </c>
       <c r="AM20" s="1">
-        <v>16.38900506377558</v>
+        <v>17.82039191362351</v>
       </c>
       <c r="AN20" s="1">
-        <v>16.32677297493691</v>
+        <v>17.40288566571789</v>
       </c>
       <c r="AO20" s="1">
-        <v>0.42411050996139</v>
+        <v>0.5154670292344846</v>
       </c>
       <c r="AP20" s="1">
-        <v>0.4594920986401379</v>
+        <v>0.5545804473961674</v>
       </c>
       <c r="AQ20" s="1">
-        <v>0.4109755976794157</v>
+        <v>0.1176024853959544</v>
       </c>
       <c r="AR20" s="1">
-        <v>8.812129211689536</v>
+        <v>9.548341389744452</v>
       </c>
       <c r="AS20" s="1">
-        <v>34.3756310356468</v>
+        <v>19.04891977770161</v>
       </c>
       <c r="AT20" s="1">
-        <v>7.757551619509122</v>
+        <v>7.683531554343084</v>
       </c>
       <c r="AU20" s="1">
-        <v>8.33342874321459</v>
+        <v>8.792885473460936</v>
       </c>
       <c r="AV20" s="1">
-        <v>7.274873262041416</v>
+        <v>7.296855516093427</v>
       </c>
       <c r="AW20" s="1">
-        <v>11.3344930295362</v>
+        <v>14.19913913499547</v>
       </c>
       <c r="AX20" s="1">
-        <v>7.499161263422383</v>
+        <v>7.005463786654409</v>
       </c>
       <c r="AY20" s="1">
-        <v>8.942695990764095</v>
+        <v>9.587761690818377</v>
       </c>
       <c r="AZ20" s="1">
-        <v>35.51559011746204</v>
+        <v>17.90656554030595</v>
       </c>
       <c r="BA20" s="1">
-        <v>7.947242717617412</v>
+        <v>7.628546653850383</v>
       </c>
       <c r="BB20" s="1">
-        <v>8.420837470131914</v>
+        <v>8.81307903870524</v>
       </c>
       <c r="BC20" s="1">
-        <v>7.2754484131813</v>
+        <v>7.30015495453617</v>
       </c>
       <c r="BD20" s="1">
-        <v>11.69879490308894</v>
+        <v>14.47379500530065</v>
       </c>
       <c r="BE20" s="1">
-        <v>7.488636626443648</v>
+        <v>6.888471773709655</v>
       </c>
       <c r="BF20" s="1">
-        <v>8.41428003903655</v>
+        <v>9.002606841219905</v>
       </c>
       <c r="BG20" s="1">
-        <v>9.183357238367982</v>
+        <v>9.390036551317026</v>
       </c>
       <c r="BH20" s="1">
-        <v>6.763483549212927</v>
+        <v>6.834737305603251</v>
       </c>
       <c r="BI20" s="1">
-        <v>8.019581959853975</v>
+        <v>8.338914015949904</v>
       </c>
       <c r="BJ20" s="1">
-        <v>7.258277509410252</v>
+        <v>7.20242386327373</v>
       </c>
       <c r="BK20" s="1">
-        <v>11.24750280570604</v>
+        <v>14.75909021763372</v>
       </c>
       <c r="BL20" s="1">
-        <v>5.299337878395342</v>
+        <v>5.084447576000901</v>
       </c>
     </row>
     <row r="21" spans="19:64" s="1" customFormat="1"/>
